--- a/output_ex/param_results.xlsx
+++ b/output_ex/param_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pelin/projects/github_release/recentvschronic/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pelin/projects/github_release/recentvschronic/output_ex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353F0197-90EC-664E-B926-D405E4401917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4CFAA8-0C4F-024A-B793-E2DACC4978A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25400" yWindow="460" windowWidth="27640" windowHeight="14900" activeTab="1" xr2:uid="{4BB309F5-563A-9045-B150-C7190C524EC1}"/>
+    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="13920" xr2:uid="{4BB309F5-563A-9045-B150-C7190C524EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="16Params" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D3DD46-4069-0E49-8987-84A06D114EB7}">
   <dimension ref="A1:Q355"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q355"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -613,7 +613,7 @@
         <v>0.58439099999999999</v>
       </c>
       <c r="N3">
-        <v>0.84084150627241505</v>
+        <v>0.71424675440524299</v>
       </c>
       <c r="O3">
         <v>-1</v>
@@ -666,7 +666,7 @@
         <v>0.443326</v>
       </c>
       <c r="N4">
-        <v>0.84084150627241505</v>
+        <v>0.80095261891591696</v>
       </c>
       <c r="O4">
         <v>-1</v>
@@ -719,7 +719,7 @@
         <v>0.39080799999999999</v>
       </c>
       <c r="N5">
-        <v>0.84084150627241505</v>
+        <v>0.74231537994317698</v>
       </c>
       <c r="O5">
         <v>-1</v>
@@ -772,7 +772,7 @@
         <v>0.31675700000000001</v>
       </c>
       <c r="N6">
-        <v>0.84084150627241505</v>
+        <v>0.75653964109816196</v>
       </c>
       <c r="O6">
         <v>-1</v>
@@ -825,7 +825,7 @@
         <v>0.85434399999999999</v>
       </c>
       <c r="N7">
-        <v>0.84084150627241505</v>
+        <v>0.83440956031939395</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -878,7 +878,7 @@
         <v>0.446602</v>
       </c>
       <c r="N8">
-        <v>0.84084150627241505</v>
+        <v>0.69670829601186002</v>
       </c>
       <c r="O8">
         <v>-1</v>
@@ -931,7 +931,7 @@
         <v>0.70462000000000002</v>
       </c>
       <c r="N9">
-        <v>0.84084150627241505</v>
+        <v>0.85138686946495401</v>
       </c>
       <c r="O9">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>0.45526499999999998</v>
       </c>
       <c r="N10">
-        <v>0.84084150627241505</v>
+        <v>0.78438310878128703</v>
       </c>
       <c r="O10">
         <v>-1</v>
@@ -1037,7 +1037,7 @@
         <v>0.56062500000000004</v>
       </c>
       <c r="N11">
-        <v>0.84084150627241505</v>
+        <v>0.70440017659356702</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -1090,7 +1090,7 @@
         <v>0.83331299999999997</v>
       </c>
       <c r="N12">
-        <v>0.84084150627241505</v>
+        <v>0.91617459763546205</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0.39104299999999997</v>
       </c>
       <c r="N13">
-        <v>0.84084150627241505</v>
+        <v>0.77504194531915105</v>
       </c>
       <c r="O13">
         <v>-1</v>
@@ -1196,7 +1196,7 @@
         <v>0.52660300000000004</v>
       </c>
       <c r="N14">
-        <v>0.84084150627241505</v>
+        <v>0.82098972265952797</v>
       </c>
       <c r="O14">
         <v>-1</v>
@@ -1249,7 +1249,7 @@
         <v>0.846248</v>
       </c>
       <c r="N15">
-        <v>0.84084150627241505</v>
+        <v>0.863280979127657</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0.86460000000000004</v>
       </c>
       <c r="N16">
-        <v>0.84084150627241505</v>
+        <v>0.90493097104845999</v>
       </c>
       <c r="O16">
         <v>-1</v>
@@ -1355,7 +1355,7 @@
         <v>0.56034200000000001</v>
       </c>
       <c r="N17">
-        <v>0.84084150627241505</v>
+        <v>0.81417478004714605</v>
       </c>
       <c r="O17">
         <v>-1</v>
@@ -1408,7 +1408,7 @@
         <v>0.74745799999999996</v>
       </c>
       <c r="N18">
-        <v>0.84084150627241505</v>
+        <v>0.79538491548711399</v>
       </c>
       <c r="O18">
         <v>-1</v>
@@ -1461,7 +1461,7 @@
         <v>0.337922</v>
       </c>
       <c r="N19">
-        <v>0.84084150627241505</v>
+        <v>0.76958622165233503</v>
       </c>
       <c r="O19">
         <v>-1</v>
@@ -1514,7 +1514,7 @@
         <v>0.44853500000000002</v>
       </c>
       <c r="N20">
-        <v>0.84084150627241505</v>
+        <v>0.76581411334910898</v>
       </c>
       <c r="O20">
         <v>-1</v>
@@ -1567,7 +1567,7 @@
         <v>0.37603199999999998</v>
       </c>
       <c r="N21">
-        <v>0.84084150627241505</v>
+        <v>0.569727836339052</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         <v>0.821793</v>
       </c>
       <c r="N22">
-        <v>0.84084150627241505</v>
+        <v>0.78481260374550599</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>1.0021929999999999</v>
       </c>
       <c r="N23">
-        <v>0.84084150627241505</v>
+        <v>0.81811832464399303</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -1726,7 +1726,7 @@
         <v>0.61360899999999996</v>
       </c>
       <c r="N24">
-        <v>0.84084150627241505</v>
+        <v>0.79876080288356299</v>
       </c>
       <c r="O24">
         <v>-1</v>
@@ -1779,7 +1779,7 @@
         <v>0.71816000000000002</v>
       </c>
       <c r="N25">
-        <v>0.84084150627241505</v>
+        <v>0.68737634698245598</v>
       </c>
       <c r="O25">
         <v>-1</v>
@@ -1832,7 +1832,7 @@
         <v>0.44482100000000002</v>
       </c>
       <c r="N26">
-        <v>0.84084150627241505</v>
+        <v>0.49524652706820499</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>0.62227699999999997</v>
       </c>
       <c r="N27">
-        <v>0.84084150627241505</v>
+        <v>0.66501869440745898</v>
       </c>
       <c r="O27">
         <v>-1</v>
@@ -1938,7 +1938,7 @@
         <v>1.1079559999999999</v>
       </c>
       <c r="N28">
-        <v>0.84084150627241505</v>
+        <v>0.81969389493410105</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -1991,7 +1991,7 @@
         <v>0.70469099999999996</v>
       </c>
       <c r="N29">
-        <v>0.84084150627241505</v>
+        <v>0.69667747349140996</v>
       </c>
       <c r="O29">
         <v>-1</v>
@@ -2044,7 +2044,7 @@
         <v>0.86250499999999997</v>
       </c>
       <c r="N30">
-        <v>0.84084150627241505</v>
+        <v>0.77500450321488501</v>
       </c>
       <c r="O30">
         <v>-1</v>
@@ -2097,7 +2097,7 @@
         <v>0.58136100000000002</v>
       </c>
       <c r="N31">
-        <v>0.84084150627241505</v>
+        <v>0.43800737135560702</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>0.43767600000000001</v>
       </c>
       <c r="N32">
-        <v>0.84084150627241505</v>
+        <v>0.61748988424528095</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>0.55891800000000003</v>
       </c>
       <c r="N33">
-        <v>0.84084150627241505</v>
+        <v>0.48853732029279201</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>0.67210599999999998</v>
       </c>
       <c r="N34">
-        <v>0.84084150627241505</v>
+        <v>0.57610906113391003</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0.56631900000000002</v>
       </c>
       <c r="N35">
-        <v>0.84084150627241505</v>
+        <v>0.79892485350397102</v>
       </c>
       <c r="O35">
         <v>-1</v>
@@ -2362,7 +2362,7 @@
         <v>0.57774000000000003</v>
       </c>
       <c r="N36">
-        <v>0.84084150627241505</v>
+        <v>0.77894854764530097</v>
       </c>
       <c r="O36">
         <v>-1</v>
@@ -2415,7 +2415,7 @@
         <v>0.55593800000000004</v>
       </c>
       <c r="N37">
-        <v>0.84084150627241505</v>
+        <v>0.57730592451187102</v>
       </c>
       <c r="O37">
         <v>-1</v>
@@ -2468,7 +2468,7 @@
         <v>0.87194300000000002</v>
       </c>
       <c r="N38">
-        <v>0.84084150627241505</v>
+        <v>0.87981522720224803</v>
       </c>
       <c r="O38">
         <v>-1</v>
@@ -2521,7 +2521,7 @@
         <v>0.56063799999999997</v>
       </c>
       <c r="N39">
-        <v>0.84084150627241505</v>
+        <v>0.59584587965033597</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>0.83472100000000005</v>
       </c>
       <c r="N40">
-        <v>0.84084150627241505</v>
+        <v>0.66726895273829101</v>
       </c>
       <c r="O40">
         <v>-1</v>
@@ -2627,7 +2627,7 @@
         <v>0.89827100000000004</v>
       </c>
       <c r="N41">
-        <v>0.84084150627241505</v>
+        <v>0.69441877887052605</v>
       </c>
       <c r="O41">
         <v>-1</v>
@@ -2680,7 +2680,7 @@
         <v>0.95708000000000004</v>
       </c>
       <c r="N42">
-        <v>0.84084150627241505</v>
+        <v>0.69643459274178998</v>
       </c>
       <c r="O42">
         <v>-1</v>
@@ -2733,7 +2733,7 @@
         <v>0.66555600000000004</v>
       </c>
       <c r="N43">
-        <v>0.84084150627241505</v>
+        <v>0.85867023112465801</v>
       </c>
       <c r="O43">
         <v>-1</v>
@@ -2786,7 +2786,7 @@
         <v>0.84455599999999997</v>
       </c>
       <c r="N44">
-        <v>0.84084150627241505</v>
+        <v>0.84136147028128705</v>
       </c>
       <c r="O44">
         <v>-1</v>
@@ -2839,7 +2839,7 @@
         <v>1.1687069999999999</v>
       </c>
       <c r="N45">
-        <v>0.84084150627241505</v>
+        <v>0.70258990867011695</v>
       </c>
       <c r="O45">
         <v>-1</v>
@@ -2892,7 +2892,7 @@
         <v>0.97773699999999997</v>
       </c>
       <c r="N46">
-        <v>0.84084150627241505</v>
+        <v>0.87573134367049799</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0.80173700000000003</v>
       </c>
       <c r="N47">
-        <v>0.84084150627241505</v>
+        <v>0.81563424722065903</v>
       </c>
       <c r="O47">
         <v>-1</v>
@@ -2998,7 +2998,7 @@
         <v>0.79407700000000003</v>
       </c>
       <c r="N48">
-        <v>0.84084150627241505</v>
+        <v>0.67198370681909902</v>
       </c>
       <c r="O48">
         <v>-1</v>
@@ -3051,7 +3051,7 @@
         <v>0.88898999999999995</v>
       </c>
       <c r="N49">
-        <v>0.84084150627241505</v>
+        <v>0.83408889958589805</v>
       </c>
       <c r="O49">
         <v>-1</v>
@@ -3104,7 +3104,7 @@
         <v>0.97412100000000001</v>
       </c>
       <c r="N50">
-        <v>0.84084150627241505</v>
+        <v>0.71476210159532505</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0.93194500000000002</v>
       </c>
       <c r="N51">
-        <v>0.84084150627241505</v>
+        <v>0.753928144260679</v>
       </c>
       <c r="O51">
         <v>-1</v>
@@ -3210,7 +3210,7 @@
         <v>0.55153700000000005</v>
       </c>
       <c r="N52">
-        <v>0.84084150627241505</v>
+        <v>0.365707065332254</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -3263,7 +3263,7 @@
         <v>0.97058800000000001</v>
       </c>
       <c r="N53">
-        <v>0.84084150627241505</v>
+        <v>0.86434967126515705</v>
       </c>
       <c r="O53">
         <v>-1</v>
@@ -3316,7 +3316,7 @@
         <v>0.58828199999999997</v>
       </c>
       <c r="N54">
-        <v>0.84084150627241505</v>
+        <v>0.77389280659890702</v>
       </c>
       <c r="O54">
         <v>-1</v>
@@ -3369,7 +3369,7 @@
         <v>0.750417</v>
       </c>
       <c r="N55">
-        <v>0.84084150627241505</v>
+        <v>0.71744204358527996</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0.81240400000000002</v>
       </c>
       <c r="N56">
-        <v>0.84084150627241505</v>
+        <v>0.87439285629226404</v>
       </c>
       <c r="O56">
         <v>-1</v>
@@ -3475,7 +3475,7 @@
         <v>0.37121500000000002</v>
       </c>
       <c r="N57">
-        <v>0.84084150627241505</v>
+        <v>0.467657770243111</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -3528,7 +3528,7 @@
         <v>0.78873000000000004</v>
       </c>
       <c r="N58">
-        <v>0.84084150627241505</v>
+        <v>0.80898927933059905</v>
       </c>
       <c r="O58">
         <v>-1</v>
@@ -3581,7 +3581,7 @@
         <v>0.65490899999999996</v>
       </c>
       <c r="N59">
-        <v>0.84084150627241505</v>
+        <v>0.85393679270921996</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -3634,7 +3634,7 @@
         <v>0.74248800000000004</v>
       </c>
       <c r="N60">
-        <v>0.84084150627241505</v>
+        <v>0.91664578812965503</v>
       </c>
       <c r="O60">
         <v>-1</v>
@@ -3687,7 +3687,7 @@
         <v>0.55786599999999997</v>
       </c>
       <c r="N61">
-        <v>0.84084150627241505</v>
+        <v>0.60468840690605197</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0.54949499999999996</v>
       </c>
       <c r="N62">
-        <v>0.84084150627241505</v>
+        <v>0.88441871153083296</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0.55718500000000004</v>
       </c>
       <c r="N63">
-        <v>0.84084150627241505</v>
+        <v>0.63767904194540503</v>
       </c>
       <c r="O63">
         <v>-1</v>
@@ -3846,7 +3846,7 @@
         <v>0.35399799999999998</v>
       </c>
       <c r="N64">
-        <v>0.84084150627241505</v>
+        <v>0.44755828647057999</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>0.46854499999999999</v>
       </c>
       <c r="N65">
-        <v>0.84084150627241505</v>
+        <v>0.49765902039472598</v>
       </c>
       <c r="O65">
         <v>-1</v>
@@ -3952,7 +3952,7 @@
         <v>0.69069899999999995</v>
       </c>
       <c r="N66">
-        <v>0.84084150627241505</v>
+        <v>0.59276438060712799</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         <v>0.57105600000000001</v>
       </c>
       <c r="N67">
-        <v>0.84084150627241505</v>
+        <v>0.46404578099302801</v>
       </c>
       <c r="O67">
         <v>-1</v>
@@ -4058,7 +4058,7 @@
         <v>0.75669200000000003</v>
       </c>
       <c r="N68">
-        <v>0.84084150627241505</v>
+        <v>0.82266120503718898</v>
       </c>
       <c r="O68">
         <v>-1</v>
@@ -4111,7 +4111,7 @@
         <v>1.058487</v>
       </c>
       <c r="N69">
-        <v>0.84084150627241505</v>
+        <v>0.799357102066512</v>
       </c>
       <c r="O69">
         <v>-1</v>
@@ -4164,7 +4164,7 @@
         <v>0.91153899999999999</v>
       </c>
       <c r="N70">
-        <v>0.84084150627241505</v>
+        <v>0.41329397532698597</v>
       </c>
       <c r="O70">
         <v>-1</v>
@@ -4217,7 +4217,7 @@
         <v>0.43545899999999998</v>
       </c>
       <c r="N71">
-        <v>0.84084150627241505</v>
+        <v>0.29754159105044697</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4270,7 +4270,7 @@
         <v>1.262232</v>
       </c>
       <c r="N72">
-        <v>0.84084150627241505</v>
+        <v>0.82529316235859695</v>
       </c>
       <c r="O72">
         <v>-1</v>
@@ -4323,7 +4323,7 @@
         <v>0.91847900000000005</v>
       </c>
       <c r="N73">
-        <v>0.84084150627241505</v>
+        <v>0.75840806846861197</v>
       </c>
       <c r="O73">
         <v>-1</v>
@@ -4376,7 +4376,7 @@
         <v>1.074001</v>
       </c>
       <c r="N74">
-        <v>0.84084150627241505</v>
+        <v>0.74481450888451395</v>
       </c>
       <c r="O74">
         <v>-1</v>
@@ -4429,7 +4429,7 @@
         <v>0.70589500000000005</v>
       </c>
       <c r="N75">
-        <v>0.84084150627241505</v>
+        <v>0.83722606971831803</v>
       </c>
       <c r="O75">
         <v>-1</v>
@@ -4482,7 +4482,7 @@
         <v>0.44808900000000002</v>
       </c>
       <c r="N76">
-        <v>0.84084150627241505</v>
+        <v>0.66194947945506699</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>0.365539</v>
       </c>
       <c r="N77">
-        <v>0.84084150627241505</v>
+        <v>0.277456682441376</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1.100328</v>
       </c>
       <c r="N78">
-        <v>0.84084150627241505</v>
+        <v>0.93455409777991005</v>
       </c>
       <c r="O78">
         <v>-1</v>
@@ -4641,7 +4641,7 @@
         <v>0.49078699999999997</v>
       </c>
       <c r="N79">
-        <v>0.84084150627241505</v>
+        <v>0.34065319624514201</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4694,7 +4694,7 @@
         <v>0.92191100000000004</v>
       </c>
       <c r="N80">
-        <v>0.84084150627241505</v>
+        <v>0.77498603840746505</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0.37479299999999999</v>
       </c>
       <c r="N81">
-        <v>0.84084150627241505</v>
+        <v>0.63032245408530596</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4800,7 +4800,7 @@
         <v>0.41345900000000002</v>
       </c>
       <c r="N82">
-        <v>0.84084150627241505</v>
+        <v>0.45332588241300997</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0.53062200000000004</v>
       </c>
       <c r="N83">
-        <v>0.84084150627241505</v>
+        <v>0.75327173814747705</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0.82101000000000002</v>
       </c>
       <c r="N84">
-        <v>0.84084150627241505</v>
+        <v>0.81191831932487801</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0.827654</v>
       </c>
       <c r="N85">
-        <v>0.84084150627241505</v>
+        <v>0.69963099071847801</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>0.66126499999999999</v>
       </c>
       <c r="N86">
-        <v>0.84084150627241505</v>
+        <v>0.84095378919046404</v>
       </c>
       <c r="O86">
         <v>-1</v>
@@ -5065,7 +5065,7 @@
         <v>0.84989899999999996</v>
       </c>
       <c r="N87">
-        <v>0.84084150627241505</v>
+        <v>0.71935919889866196</v>
       </c>
       <c r="O87">
         <v>-1</v>
@@ -5118,7 +5118,7 @@
         <v>0.586588</v>
       </c>
       <c r="N88">
-        <v>0.84084150627241505</v>
+        <v>0.59765544927474001</v>
       </c>
       <c r="O88">
         <v>1</v>
@@ -5171,7 +5171,7 @@
         <v>1.1402570000000001</v>
       </c>
       <c r="N89">
-        <v>0.84084150627241505</v>
+        <v>0.81743658707606204</v>
       </c>
       <c r="O89">
         <v>-1</v>
@@ -5224,7 +5224,7 @@
         <v>0.84384700000000001</v>
       </c>
       <c r="N90">
-        <v>0.84084150627241505</v>
+        <v>0.82843186916919498</v>
       </c>
       <c r="O90">
         <v>-1</v>
@@ -5277,7 +5277,7 @@
         <v>0.49026500000000001</v>
       </c>
       <c r="N91">
-        <v>0.84084150627241505</v>
+        <v>0.48723904347626401</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5330,7 +5330,7 @@
         <v>0.55756399999999995</v>
       </c>
       <c r="N92">
-        <v>0.84084150627241505</v>
+        <v>0.79134073176261899</v>
       </c>
       <c r="O92">
         <v>-1</v>
@@ -5383,7 +5383,7 @@
         <v>1.036797</v>
       </c>
       <c r="N93">
-        <v>0.84084150627241505</v>
+        <v>0.91519927885102104</v>
       </c>
       <c r="O93">
         <v>-1</v>
@@ -5436,7 +5436,7 @@
         <v>0.43820100000000001</v>
       </c>
       <c r="N94">
-        <v>0.84084150627241505</v>
+        <v>0.40107776582946503</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>0.54617800000000005</v>
       </c>
       <c r="N95">
-        <v>0.84084150627241505</v>
+        <v>0.753574969892985</v>
       </c>
       <c r="O95">
         <v>-1</v>
@@ -5542,7 +5542,7 @@
         <v>0.31223699999999999</v>
       </c>
       <c r="N96">
-        <v>0.84084150627241505</v>
+        <v>0.51319973395274598</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -5595,7 +5595,7 @@
         <v>0.398061</v>
       </c>
       <c r="N97">
-        <v>0.84084150627241505</v>
+        <v>0.475013974354274</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5648,7 +5648,7 @@
         <v>0.97115799999999997</v>
       </c>
       <c r="N98">
-        <v>0.84084150627241505</v>
+        <v>0.817849726982251</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>0.54408699999999999</v>
       </c>
       <c r="N99">
-        <v>0.84084150627241505</v>
+        <v>0.83130700643641597</v>
       </c>
       <c r="O99">
         <v>-1</v>
@@ -5754,7 +5754,7 @@
         <v>0.33842299999999997</v>
       </c>
       <c r="N100">
-        <v>0.84084150627241505</v>
+        <v>0.48566641188374898</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -5807,7 +5807,7 @@
         <v>0.85845700000000003</v>
       </c>
       <c r="N101">
-        <v>0.84084150627241505</v>
+        <v>0.61788168098794305</v>
       </c>
       <c r="O101">
         <v>-1</v>
@@ -5860,7 +5860,7 @@
         <v>0.222857</v>
       </c>
       <c r="N102">
-        <v>0.84084150627241505</v>
+        <v>0.248208269733866</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>0.39459699999999998</v>
       </c>
       <c r="N103">
-        <v>0.84084150627241505</v>
+        <v>0.600624128065672</v>
       </c>
       <c r="O103">
         <v>-1</v>
@@ -5966,7 +5966,7 @@
         <v>0.64586200000000005</v>
       </c>
       <c r="N104">
-        <v>0.84084150627241505</v>
+        <v>0.69036971993581397</v>
       </c>
       <c r="O104">
         <v>-1</v>
@@ -6019,7 +6019,7 @@
         <v>0.43876199999999999</v>
       </c>
       <c r="N105">
-        <v>0.84084150627241505</v>
+        <v>0.60228219023915996</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -6072,7 +6072,7 @@
         <v>0.43970799999999999</v>
       </c>
       <c r="N106">
-        <v>0.84084150627241505</v>
+        <v>0.44437362038995998</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>0.75298200000000004</v>
       </c>
       <c r="N107">
-        <v>0.84084150627241505</v>
+        <v>0.58575540098051304</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0.55852900000000005</v>
       </c>
       <c r="N108">
-        <v>0.84084150627241505</v>
+        <v>0.68065381639218103</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0.31689400000000001</v>
       </c>
       <c r="N109">
-        <v>0.84084150627241505</v>
+        <v>0.60465764346391904</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -6284,7 +6284,7 @@
         <v>0.59237399999999996</v>
       </c>
       <c r="N110">
-        <v>0.84084150627241505</v>
+        <v>0.55691661353290001</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -6337,7 +6337,7 @@
         <v>0.96356900000000001</v>
       </c>
       <c r="N111">
-        <v>0.84084150627241505</v>
+        <v>0.85379924898806703</v>
       </c>
       <c r="O111">
         <v>0</v>
@@ -6390,7 +6390,7 @@
         <v>0.40216099999999999</v>
       </c>
       <c r="N112">
-        <v>0.84084150627241505</v>
+        <v>0.47222624056937201</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6443,7 +6443,7 @@
         <v>0.273789</v>
       </c>
       <c r="N113">
-        <v>0.84084150627241505</v>
+        <v>0.384456261996449</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>0.70169199999999998</v>
       </c>
       <c r="N114">
-        <v>0.84084150627241505</v>
+        <v>0.67623190726041704</v>
       </c>
       <c r="O114">
         <v>-1</v>
@@ -6549,7 +6549,7 @@
         <v>0.91357699999999997</v>
       </c>
       <c r="N115">
-        <v>0.84084150627241505</v>
+        <v>0.86453467276067797</v>
       </c>
       <c r="O115">
         <v>-1</v>
@@ -6602,7 +6602,7 @@
         <v>0.916605</v>
       </c>
       <c r="N116">
-        <v>0.84084150627241505</v>
+        <v>0.60326833692204695</v>
       </c>
       <c r="O116">
         <v>-1</v>
@@ -6655,7 +6655,7 @@
         <v>0.67220999999999997</v>
       </c>
       <c r="N117">
-        <v>0.84084150627241505</v>
+        <v>0.82206626788662396</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>0.44859300000000002</v>
       </c>
       <c r="N118">
-        <v>0.84084150627241505</v>
+        <v>0.480528148326475</v>
       </c>
       <c r="O118">
         <v>1</v>
@@ -6761,7 +6761,7 @@
         <v>0.60929900000000004</v>
       </c>
       <c r="N119">
-        <v>0.84084150627241505</v>
+        <v>0.83852001039343105</v>
       </c>
       <c r="O119">
         <v>-1</v>
@@ -6814,7 +6814,7 @@
         <v>0.59532099999999999</v>
       </c>
       <c r="N120">
-        <v>0.84084150627241505</v>
+        <v>0.50237490140117103</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>0.74936599999999998</v>
       </c>
       <c r="N121">
-        <v>0.84084150627241505</v>
+        <v>0.70358186857579597</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -6920,7 +6920,7 @@
         <v>0.81809900000000002</v>
       </c>
       <c r="N122">
-        <v>0.84084150627241505</v>
+        <v>0.80305240836562597</v>
       </c>
       <c r="O122">
         <v>-1</v>
@@ -6973,7 +6973,7 @@
         <v>0.49788500000000002</v>
       </c>
       <c r="N123">
-        <v>0.84084150627241505</v>
+        <v>0.33112862771651802</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>0.56981400000000004</v>
       </c>
       <c r="N124">
-        <v>0.84084150627241505</v>
+        <v>0.61768806991667602</v>
       </c>
       <c r="O124">
         <v>1</v>
@@ -7079,7 +7079,7 @@
         <v>0.690689</v>
       </c>
       <c r="N125">
-        <v>0.84084150627241505</v>
+        <v>0.82935697049579504</v>
       </c>
       <c r="O125">
         <v>-1</v>
@@ -7132,7 +7132,7 @@
         <v>0.540238</v>
       </c>
       <c r="N126">
-        <v>0.84084150627241505</v>
+        <v>0.42800423324450898</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>0.50019800000000003</v>
       </c>
       <c r="N127">
-        <v>0.84084150627241505</v>
+        <v>0.63854902350328302</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>0.45644000000000001</v>
       </c>
       <c r="N128">
-        <v>0.84084150627241505</v>
+        <v>0.26063267364919501</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>0.60978200000000005</v>
       </c>
       <c r="N129">
-        <v>0.84084150627241505</v>
+        <v>0.52126364456721697</v>
       </c>
       <c r="O129">
         <v>1</v>
@@ -7344,7 +7344,7 @@
         <v>0.61493399999999998</v>
       </c>
       <c r="N130">
-        <v>0.84084150627241505</v>
+        <v>0.59205704811748805</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -7397,7 +7397,7 @@
         <v>0.40868399999999999</v>
       </c>
       <c r="N131">
-        <v>0.84084150627241505</v>
+        <v>0.35639735469240003</v>
       </c>
       <c r="O131">
         <v>0</v>
@@ -7450,7 +7450,7 @@
         <v>0.43621599999999999</v>
       </c>
       <c r="N132">
-        <v>0.84084150627241505</v>
+        <v>0.71195971690062398</v>
       </c>
       <c r="O132">
         <v>-1</v>
@@ -7503,7 +7503,7 @@
         <v>0.62883599999999995</v>
       </c>
       <c r="N133">
-        <v>0.84084150627241505</v>
+        <v>0.62340917484720804</v>
       </c>
       <c r="O133">
         <v>-1</v>
@@ -7556,7 +7556,7 @@
         <v>0.47683500000000001</v>
       </c>
       <c r="N134">
-        <v>0.84084150627241505</v>
+        <v>0.55852785245043901</v>
       </c>
       <c r="O134">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>0.468032</v>
       </c>
       <c r="N135">
-        <v>0.84084150627241505</v>
+        <v>0.52881878529549498</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>0.94131600000000004</v>
       </c>
       <c r="N136">
-        <v>0.84084150627241505</v>
+        <v>0.89305762048887305</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>0.53316799999999998</v>
       </c>
       <c r="N137">
-        <v>0.84084150627241505</v>
+        <v>0.54889341322872498</v>
       </c>
       <c r="O137">
         <v>1</v>
@@ -7768,7 +7768,7 @@
         <v>0.34003800000000001</v>
       </c>
       <c r="N138">
-        <v>0.84084150627241505</v>
+        <v>0.64367693265973702</v>
       </c>
       <c r="O138">
         <v>-1</v>
@@ -7821,7 +7821,7 @@
         <v>0.62978800000000001</v>
       </c>
       <c r="N139">
-        <v>0.84084150627241505</v>
+        <v>0.75418370371511401</v>
       </c>
       <c r="O139">
         <v>-1</v>
@@ -7874,7 +7874,7 @@
         <v>0.49876500000000001</v>
       </c>
       <c r="N140">
-        <v>0.84084150627241505</v>
+        <v>0.77841977008281704</v>
       </c>
       <c r="O140">
         <v>-1</v>
@@ -7927,7 +7927,7 @@
         <v>1.089534</v>
       </c>
       <c r="N141">
-        <v>0.84084150627241505</v>
+        <v>0.85266667666178497</v>
       </c>
       <c r="O141">
         <v>-1</v>
@@ -7980,7 +7980,7 @@
         <v>0.72100799999999998</v>
       </c>
       <c r="N142">
-        <v>0.84084150627241505</v>
+        <v>0.79871185644087805</v>
       </c>
       <c r="O142">
         <v>-1</v>
@@ -8033,7 +8033,7 @@
         <v>0.79668499999999998</v>
       </c>
       <c r="N143">
-        <v>0.84084150627241505</v>
+        <v>0.77698243929752397</v>
       </c>
       <c r="O143">
         <v>-1</v>
@@ -8086,7 +8086,7 @@
         <v>1.0603800000000001</v>
       </c>
       <c r="N144">
-        <v>0.84084150627241505</v>
+        <v>0.66254503116430397</v>
       </c>
       <c r="O144">
         <v>-1</v>
@@ -8139,7 +8139,7 @@
         <v>0.74786600000000003</v>
       </c>
       <c r="N145">
-        <v>0.84084150627241505</v>
+        <v>0.843665310979826</v>
       </c>
       <c r="O145">
         <v>-1</v>
@@ -8192,7 +8192,7 @@
         <v>0.389627</v>
       </c>
       <c r="N146">
-        <v>0.84084150627241505</v>
+        <v>0.248912506457344</v>
       </c>
       <c r="O146">
         <v>1</v>
@@ -8245,7 +8245,7 @@
         <v>0.80556300000000003</v>
       </c>
       <c r="N147">
-        <v>0.84084150627241505</v>
+        <v>0.79307196505007904</v>
       </c>
       <c r="O147">
         <v>-1</v>
@@ -8298,7 +8298,7 @@
         <v>0.63346499999999994</v>
       </c>
       <c r="N148">
-        <v>0.84084150627241505</v>
+        <v>0.64019866703518102</v>
       </c>
       <c r="O148">
         <v>1</v>
@@ -8351,7 +8351,7 @@
         <v>0.64243700000000004</v>
       </c>
       <c r="N149">
-        <v>0.84084150627241505</v>
+        <v>0.71563160000347903</v>
       </c>
       <c r="O149">
         <v>-1</v>
@@ -8404,7 +8404,7 @@
         <v>0.71341100000000002</v>
       </c>
       <c r="N150">
-        <v>0.84084150627241505</v>
+        <v>0.61423123209577501</v>
       </c>
       <c r="O150">
         <v>-1</v>
@@ -8457,7 +8457,7 @@
         <v>0.69118199999999996</v>
       </c>
       <c r="N151">
-        <v>0.84084150627241505</v>
+        <v>0.61614190558398096</v>
       </c>
       <c r="O151">
         <v>1</v>
@@ -8510,7 +8510,7 @@
         <v>0.36956299999999997</v>
       </c>
       <c r="N152">
-        <v>0.84084150627241505</v>
+        <v>0.61026051374678403</v>
       </c>
       <c r="O152">
         <v>-1</v>
@@ -8563,7 +8563,7 @@
         <v>0.56158600000000003</v>
       </c>
       <c r="N153">
-        <v>0.84084150627241505</v>
+        <v>0.81981400172089203</v>
       </c>
       <c r="O153">
         <v>-1</v>
@@ -8616,7 +8616,7 @@
         <v>0.32301000000000002</v>
       </c>
       <c r="N154">
-        <v>0.84084150627241505</v>
+        <v>0.44678900555760898</v>
       </c>
       <c r="O154">
         <v>1</v>
@@ -8669,7 +8669,7 @@
         <v>0.39857700000000001</v>
       </c>
       <c r="N155">
-        <v>0.84084150627241505</v>
+        <v>0.42820759639129402</v>
       </c>
       <c r="O155">
         <v>1</v>
@@ -8722,7 +8722,7 @@
         <v>0.688411</v>
       </c>
       <c r="N156">
-        <v>0.84084150627241505</v>
+        <v>0.79530860218091304</v>
       </c>
       <c r="O156">
         <v>-1</v>
@@ -8775,7 +8775,7 @@
         <v>0.51523399999999997</v>
       </c>
       <c r="N157">
-        <v>0.84084150627241505</v>
+        <v>0.64886596904590699</v>
       </c>
       <c r="O157">
         <v>-1</v>
@@ -8828,7 +8828,7 @@
         <v>0.818824</v>
       </c>
       <c r="N158">
-        <v>0.84084150627241505</v>
+        <v>0.68122908279016803</v>
       </c>
       <c r="O158">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>0.67451700000000003</v>
       </c>
       <c r="N159">
-        <v>0.84084150627241505</v>
+        <v>0.63417869463390497</v>
       </c>
       <c r="O159">
         <v>-1</v>
@@ -8934,7 +8934,7 @@
         <v>0.63548700000000002</v>
       </c>
       <c r="N160">
-        <v>0.84084150627241505</v>
+        <v>0.61949712893750997</v>
       </c>
       <c r="O160">
         <v>-1</v>
@@ -8987,7 +8987,7 @@
         <v>0.73807500000000004</v>
       </c>
       <c r="N161">
-        <v>0.84084150627241505</v>
+        <v>0.66027651607954196</v>
       </c>
       <c r="O161">
         <v>-1</v>
@@ -9040,7 +9040,7 @@
         <v>0.76509300000000002</v>
       </c>
       <c r="N162">
-        <v>0.84084150627241505</v>
+        <v>0.61135687189324495</v>
       </c>
       <c r="O162">
         <v>-1</v>
@@ -9093,7 +9093,7 @@
         <v>0.54419899999999999</v>
       </c>
       <c r="N163">
-        <v>0.84084150627241505</v>
+        <v>0.818192734720813</v>
       </c>
       <c r="O163">
         <v>-1</v>
@@ -9146,7 +9146,7 @@
         <v>0.84890500000000002</v>
       </c>
       <c r="N164">
-        <v>0.84084150627241505</v>
+        <v>0.85197631550462105</v>
       </c>
       <c r="O164">
         <v>-1</v>
@@ -9199,7 +9199,7 @@
         <v>1.001862</v>
       </c>
       <c r="N165">
-        <v>0.84084150627241505</v>
+        <v>0.834227695486916</v>
       </c>
       <c r="O165">
         <v>-1</v>
@@ -9252,7 +9252,7 @@
         <v>1.0196700000000001</v>
       </c>
       <c r="N166">
-        <v>0.84084150627241505</v>
+        <v>0.851089852907152</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0.34209099999999998</v>
       </c>
       <c r="N167">
-        <v>0.84084150627241505</v>
+        <v>0.45758524201575601</v>
       </c>
       <c r="O167">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>0.77047600000000005</v>
       </c>
       <c r="N168">
-        <v>0.84084150627241505</v>
+        <v>0.70261700627236801</v>
       </c>
       <c r="O168">
         <v>-1</v>
@@ -9411,7 +9411,7 @@
         <v>0.50171299999999996</v>
       </c>
       <c r="N169">
-        <v>0.84084150627241505</v>
+        <v>0.53575685660900396</v>
       </c>
       <c r="O169">
         <v>1</v>
@@ -9464,7 +9464,7 @@
         <v>0.70894699999999999</v>
       </c>
       <c r="N170">
-        <v>0.84084150627241505</v>
+        <v>0.74507638699458301</v>
       </c>
       <c r="O170">
         <v>-1</v>
@@ -9517,7 +9517,7 @@
         <v>0.63095500000000004</v>
       </c>
       <c r="N171">
-        <v>0.84084150627241505</v>
+        <v>0.66262750015244698</v>
       </c>
       <c r="O171">
         <v>-1</v>
@@ -9570,7 +9570,7 @@
         <v>0.93206599999999995</v>
       </c>
       <c r="N172">
-        <v>0.84084150627241505</v>
+        <v>0.754713486043325</v>
       </c>
       <c r="O172">
         <v>-1</v>
@@ -9623,7 +9623,7 @@
         <v>0.40276099999999998</v>
       </c>
       <c r="N173">
-        <v>0.84084150627241505</v>
+        <v>0.75448856917687401</v>
       </c>
       <c r="O173">
         <v>-1</v>
@@ -9676,7 +9676,7 @@
         <v>0.45176300000000003</v>
       </c>
       <c r="N174">
-        <v>0.84084150627241505</v>
+        <v>0.48546310937731502</v>
       </c>
       <c r="O174">
         <v>1</v>
@@ -9729,7 +9729,7 @@
         <v>1.0139180000000001</v>
       </c>
       <c r="N175">
-        <v>0.84084150627241505</v>
+        <v>0.79912250833607001</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>0.50144100000000003</v>
       </c>
       <c r="N176">
-        <v>0.84084150627241505</v>
+        <v>0.58203680953102099</v>
       </c>
       <c r="O176">
         <v>-1</v>
@@ -9835,7 +9835,7 @@
         <v>0.471746</v>
       </c>
       <c r="N177">
-        <v>0.84084150627241505</v>
+        <v>0.44256293233783001</v>
       </c>
       <c r="O177">
         <v>1</v>
@@ -9888,7 +9888,7 @@
         <v>0.86720200000000003</v>
       </c>
       <c r="N178">
-        <v>0.84084150627241505</v>
+        <v>0.83848417151011401</v>
       </c>
       <c r="O178">
         <v>-1</v>
@@ -9941,7 +9941,7 @@
         <v>1.0482400000000001</v>
       </c>
       <c r="N179">
-        <v>0.84084150627241505</v>
+        <v>0.75310267994633895</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -9994,7 +9994,7 @@
         <v>0.87149799999999999</v>
       </c>
       <c r="N180">
-        <v>0.84084150627241505</v>
+        <v>0.89823698061754598</v>
       </c>
       <c r="O180">
         <v>-1</v>
@@ -10047,7 +10047,7 @@
         <v>0.91186400000000001</v>
       </c>
       <c r="N181">
-        <v>0.84084150627241505</v>
+        <v>0.82237438048363498</v>
       </c>
       <c r="O181">
         <v>-1</v>
@@ -10100,7 +10100,7 @@
         <v>0.48938100000000001</v>
       </c>
       <c r="N182">
-        <v>0.84084150627241505</v>
+        <v>0.38714741351426002</v>
       </c>
       <c r="O182">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>0.79054899999999995</v>
       </c>
       <c r="N183">
-        <v>0.84084150627241505</v>
+        <v>0.62120869466483497</v>
       </c>
       <c r="O183">
         <v>-1</v>
@@ -10206,7 +10206,7 @@
         <v>0.51223799999999997</v>
       </c>
       <c r="N184">
-        <v>0.84084150627241505</v>
+        <v>0.71019455560919598</v>
       </c>
       <c r="O184">
         <v>-1</v>
@@ -10259,7 +10259,7 @@
         <v>0.72362499999999996</v>
       </c>
       <c r="N185">
-        <v>0.84084150627241505</v>
+        <v>0.60069421275755597</v>
       </c>
       <c r="O185">
         <v>1</v>
@@ -10312,7 +10312,7 @@
         <v>0.62356900000000004</v>
       </c>
       <c r="N186">
-        <v>0.84084150627241505</v>
+        <v>0.60196780404708095</v>
       </c>
       <c r="O186">
         <v>1</v>
@@ -10365,7 +10365,7 @@
         <v>0.95103300000000002</v>
       </c>
       <c r="N187">
-        <v>0.84084150627241505</v>
+        <v>0.920354726134468</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -10418,7 +10418,7 @@
         <v>0.12624099999999999</v>
       </c>
       <c r="N188">
-        <v>0.84084150627241505</v>
+        <v>0.52915230682572001</v>
       </c>
       <c r="O188">
         <v>-1</v>
@@ -10471,7 +10471,7 @@
         <v>0.43367899999999998</v>
       </c>
       <c r="N189">
-        <v>0.84084150627241505</v>
+        <v>0.541091787017843</v>
       </c>
       <c r="O189">
         <v>1</v>
@@ -10524,7 +10524,7 @@
         <v>0.37397599999999998</v>
       </c>
       <c r="N190">
-        <v>0.84084150627241505</v>
+        <v>0.37359545682972101</v>
       </c>
       <c r="O190">
         <v>1</v>
@@ -10577,7 +10577,7 @@
         <v>0.94827499999999998</v>
       </c>
       <c r="N191">
-        <v>0.84084150627241505</v>
+        <v>0.809197060007951</v>
       </c>
       <c r="O191">
         <v>-1</v>
@@ -10630,7 +10630,7 @@
         <v>0.133827</v>
       </c>
       <c r="N192">
-        <v>0.84084150627241505</v>
+        <v>0.44883812853073302</v>
       </c>
       <c r="O192">
         <v>-1</v>
@@ -10683,7 +10683,7 @@
         <v>0.64898299999999998</v>
       </c>
       <c r="N193">
-        <v>0.84084150627241505</v>
+        <v>0.87760524567367004</v>
       </c>
       <c r="O193">
         <v>-1</v>
@@ -10736,7 +10736,7 @@
         <v>0.51972499999999999</v>
       </c>
       <c r="N194">
-        <v>0.84084150627241505</v>
+        <v>0.87283433814289502</v>
       </c>
       <c r="O194">
         <v>-1</v>
@@ -10789,7 +10789,7 @@
         <v>0.35805199999999998</v>
       </c>
       <c r="N195">
-        <v>0.84084150627241505</v>
+        <v>0.69263017396648296</v>
       </c>
       <c r="O195">
         <v>-1</v>
@@ -10842,7 +10842,7 @@
         <v>0.58022399999999996</v>
       </c>
       <c r="N196">
-        <v>0.84084150627241505</v>
+        <v>0.54666424520304102</v>
       </c>
       <c r="O196">
         <v>-1</v>
@@ -10895,7 +10895,7 @@
         <v>0.20374100000000001</v>
       </c>
       <c r="N197">
-        <v>0.84084150627241505</v>
+        <v>0.64364115492860197</v>
       </c>
       <c r="O197">
         <v>-1</v>
@@ -10948,7 +10948,7 @@
         <v>0.38680900000000001</v>
       </c>
       <c r="N198">
-        <v>0.84084150627241505</v>
+        <v>0.81738470933070895</v>
       </c>
       <c r="O198">
         <v>-1</v>
@@ -11001,7 +11001,7 @@
         <v>0.65356700000000001</v>
       </c>
       <c r="N199">
-        <v>0.84084150627241505</v>
+        <v>0.84310743706831104</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -11054,7 +11054,7 @@
         <v>0.247779</v>
       </c>
       <c r="N200">
-        <v>0.84084150627241505</v>
+        <v>0.37130726389225899</v>
       </c>
       <c r="O200">
         <v>1</v>
@@ -11107,7 +11107,7 @@
         <v>0.442411</v>
       </c>
       <c r="N201">
-        <v>0.84084150627241505</v>
+        <v>0.81964749692791405</v>
       </c>
       <c r="O201">
         <v>-1</v>
@@ -11160,7 +11160,7 @@
         <v>0.29540499999999997</v>
       </c>
       <c r="N202">
-        <v>0.84084150627241505</v>
+        <v>0.71409865609713796</v>
       </c>
       <c r="O202">
         <v>-1</v>
@@ -11213,7 +11213,7 @@
         <v>0.32301000000000002</v>
       </c>
       <c r="N203">
-        <v>0.84084150627241505</v>
+        <v>0.46562705535306198</v>
       </c>
       <c r="O203">
         <v>1</v>
@@ -11266,7 +11266,7 @@
         <v>0.41343600000000003</v>
       </c>
       <c r="N204">
-        <v>0.84084150627241505</v>
+        <v>0.317611462427623</v>
       </c>
       <c r="O204">
         <v>1</v>
@@ -11319,7 +11319,7 @@
         <v>0.35053400000000001</v>
       </c>
       <c r="N205">
-        <v>0.84084150627241505</v>
+        <v>0.46681795994090702</v>
       </c>
       <c r="O205">
         <v>1</v>
@@ -11372,7 +11372,7 @@
         <v>0.53824799999999995</v>
       </c>
       <c r="N206">
-        <v>0.84084150627241505</v>
+        <v>0.345008790459572</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -11425,7 +11425,7 @@
         <v>0.22837399999999999</v>
       </c>
       <c r="N207">
-        <v>0.84084150627241505</v>
+        <v>0.39943632214015901</v>
       </c>
       <c r="O207">
         <v>1</v>
@@ -11478,7 +11478,7 @@
         <v>0.73151500000000003</v>
       </c>
       <c r="N208">
-        <v>0.84084150627241505</v>
+        <v>0.76224579051087704</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0.399617</v>
       </c>
       <c r="N209">
-        <v>0.84084150627241505</v>
+        <v>0.56366508798745396</v>
       </c>
       <c r="O209">
         <v>1</v>
@@ -11584,7 +11584,7 @@
         <v>0.77925500000000003</v>
       </c>
       <c r="N210">
-        <v>0.84084150627241505</v>
+        <v>0.91489190067721904</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -11637,7 +11637,7 @@
         <v>0.74322500000000002</v>
       </c>
       <c r="N211">
-        <v>0.84084150627241505</v>
+        <v>0.724903010627583</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -11690,7 +11690,7 @@
         <v>0.303699</v>
       </c>
       <c r="N212">
-        <v>0.84084150627241505</v>
+        <v>0.469939873387412</v>
       </c>
       <c r="O212">
         <v>1</v>
@@ -11743,7 +11743,7 @@
         <v>0.64721099999999998</v>
       </c>
       <c r="N213">
-        <v>0.84084150627241505</v>
+        <v>0.76147068874103396</v>
       </c>
       <c r="O213">
         <v>-1</v>
@@ -11796,7 +11796,7 @@
         <v>0.46736800000000001</v>
       </c>
       <c r="N214">
-        <v>0.84084150627241505</v>
+        <v>0.65765019559613702</v>
       </c>
       <c r="O214">
         <v>-1</v>
@@ -11849,7 +11849,7 @@
         <v>0.81067699999999998</v>
       </c>
       <c r="N215">
-        <v>0.84084150627241505</v>
+        <v>0.91001719798691605</v>
       </c>
       <c r="O215">
         <v>-1</v>
@@ -11902,7 +11902,7 @@
         <v>0.58474199999999998</v>
       </c>
       <c r="N216">
-        <v>0.84084150627241505</v>
+        <v>0.54422738363940903</v>
       </c>
       <c r="O216">
         <v>1</v>
@@ -11955,7 +11955,7 @@
         <v>0.25373800000000002</v>
       </c>
       <c r="N217">
-        <v>0.84084150627241505</v>
+        <v>0.53023463619286104</v>
       </c>
       <c r="O217">
         <v>1</v>
@@ -12008,7 +12008,7 @@
         <v>0.39727600000000002</v>
       </c>
       <c r="N218">
-        <v>0.84084150627241505</v>
+        <v>0.53580683868238499</v>
       </c>
       <c r="O218">
         <v>1</v>
@@ -12061,7 +12061,7 @@
         <v>1.0017750000000001</v>
       </c>
       <c r="N219">
-        <v>0.84084150627241505</v>
+        <v>0.86647578927868996</v>
       </c>
       <c r="O219">
         <v>-1</v>
@@ -12114,7 +12114,7 @@
         <v>0.74547300000000005</v>
       </c>
       <c r="N220">
-        <v>0.84084150627241505</v>
+        <v>0.75738425373324003</v>
       </c>
       <c r="O220">
         <v>-1</v>
@@ -12167,7 +12167,7 @@
         <v>0.55675399999999997</v>
       </c>
       <c r="N221">
-        <v>0.84084150627241505</v>
+        <v>0.79774385179207896</v>
       </c>
       <c r="O221">
         <v>-1</v>
@@ -12220,7 +12220,7 @@
         <v>0.68236600000000003</v>
       </c>
       <c r="N222">
-        <v>0.84084150627241505</v>
+        <v>0.72357442397902705</v>
       </c>
       <c r="O222">
         <v>-1</v>
@@ -12273,7 +12273,7 @@
         <v>0.49509799999999998</v>
       </c>
       <c r="N223">
-        <v>0.84084150627241505</v>
+        <v>0.56017122292150801</v>
       </c>
       <c r="O223">
         <v>1</v>
@@ -12326,7 +12326,7 @@
         <v>0.79521200000000003</v>
       </c>
       <c r="N224">
-        <v>0.84084150627241505</v>
+        <v>0.75580702331580796</v>
       </c>
       <c r="O224">
         <v>-1</v>
@@ -12379,7 +12379,7 @@
         <v>0.99681299999999995</v>
       </c>
       <c r="N225">
-        <v>0.84084150627241505</v>
+        <v>0.815909906400903</v>
       </c>
       <c r="O225">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>0.84259300000000004</v>
       </c>
       <c r="N226">
-        <v>0.84084150627241505</v>
+        <v>0.73340450036780402</v>
       </c>
       <c r="O226">
         <v>-1</v>
@@ -12485,7 +12485,7 @@
         <v>0.447019</v>
       </c>
       <c r="N227">
-        <v>0.84084150627241505</v>
+        <v>0.80888398195529998</v>
       </c>
       <c r="O227">
         <v>-1</v>
@@ -12538,7 +12538,7 @@
         <v>0.50901300000000005</v>
       </c>
       <c r="N228">
-        <v>0.84084150627241505</v>
+        <v>0.40888780473894698</v>
       </c>
       <c r="O228">
         <v>1</v>
@@ -12591,7 +12591,7 @@
         <v>0.84545800000000004</v>
       </c>
       <c r="N229">
-        <v>0.84084150627241505</v>
+        <v>0.59771193337270301</v>
       </c>
       <c r="O229">
         <v>-1</v>
@@ -12644,7 +12644,7 @@
         <v>0.42960700000000002</v>
       </c>
       <c r="N230">
-        <v>0.84084150627241505</v>
+        <v>0.414847159912965</v>
       </c>
       <c r="O230">
         <v>1</v>
@@ -12697,7 +12697,7 @@
         <v>0.92329700000000003</v>
       </c>
       <c r="N231">
-        <v>0.84084150627241505</v>
+        <v>0.76216571520699705</v>
       </c>
       <c r="O231">
         <v>-1</v>
@@ -12750,7 +12750,7 @@
         <v>0.54285899999999998</v>
       </c>
       <c r="N232">
-        <v>0.84084150627241505</v>
+        <v>0.58449749142816698</v>
       </c>
       <c r="O232">
         <v>0</v>
@@ -12803,7 +12803,7 @@
         <v>0.86543599999999998</v>
       </c>
       <c r="N233">
-        <v>0.84084150627241505</v>
+        <v>0.64746302835324598</v>
       </c>
       <c r="O233">
         <v>0</v>
@@ -12856,7 +12856,7 @@
         <v>0.48361500000000002</v>
       </c>
       <c r="N234">
-        <v>0.84084150627241505</v>
+        <v>0.72246598658493999</v>
       </c>
       <c r="O234">
         <v>-1</v>
@@ -12909,7 +12909,7 @@
         <v>0.29098099999999999</v>
       </c>
       <c r="N235">
-        <v>0.84084150627241505</v>
+        <v>0.18985041786403201</v>
       </c>
       <c r="O235">
         <v>1</v>
@@ -12962,7 +12962,7 @@
         <v>0.30926799999999999</v>
       </c>
       <c r="N236">
-        <v>0.84084150627241505</v>
+        <v>0.43145692436987398</v>
       </c>
       <c r="O236">
         <v>1</v>
@@ -13015,7 +13015,7 @@
         <v>0.46939700000000001</v>
       </c>
       <c r="N237">
-        <v>0.84084150627241505</v>
+        <v>0.59671386727886699</v>
       </c>
       <c r="O237">
         <v>1</v>
@@ -13068,7 +13068,7 @@
         <v>0.65254900000000005</v>
       </c>
       <c r="N238">
-        <v>0.84084150627241505</v>
+        <v>0.65994271993573095</v>
       </c>
       <c r="O238">
         <v>-1</v>
@@ -13121,7 +13121,7 @@
         <v>0.36947099999999999</v>
       </c>
       <c r="N239">
-        <v>0.84084150627241505</v>
+        <v>0.38375481124626898</v>
       </c>
       <c r="O239">
         <v>1</v>
@@ -13174,7 +13174,7 @@
         <v>0.93621699999999997</v>
       </c>
       <c r="N240">
-        <v>0.84084150627241505</v>
+        <v>0.90560001333439699</v>
       </c>
       <c r="O240">
         <v>-1</v>
@@ -13227,7 +13227,7 @@
         <v>0.61875999999999998</v>
       </c>
       <c r="N241">
-        <v>0.84084150627241505</v>
+        <v>0.76846540972757005</v>
       </c>
       <c r="O241">
         <v>-1</v>
@@ -13280,7 +13280,7 @@
         <v>0.88321400000000005</v>
       </c>
       <c r="N242">
-        <v>0.84084150627241505</v>
+        <v>0.83064895072753098</v>
       </c>
       <c r="O242">
         <v>0</v>
@@ -13333,7 +13333,7 @@
         <v>0.57382699999999998</v>
       </c>
       <c r="N243">
-        <v>0.84084150627241505</v>
+        <v>0.72605947203924004</v>
       </c>
       <c r="O243">
         <v>-1</v>
@@ -13386,7 +13386,7 @@
         <v>0.36483399999999999</v>
       </c>
       <c r="N244">
-        <v>0.84084150627241505</v>
+        <v>0.59589622327060499</v>
       </c>
       <c r="O244">
         <v>1</v>
@@ -13439,7 +13439,7 @@
         <v>0.559249</v>
       </c>
       <c r="N245">
-        <v>0.84084150627241505</v>
+        <v>0.79752506803230905</v>
       </c>
       <c r="O245">
         <v>-1</v>
@@ -13492,7 +13492,7 @@
         <v>0.42155399999999998</v>
       </c>
       <c r="N246">
-        <v>0.84084150627241505</v>
+        <v>0.61856662459755596</v>
       </c>
       <c r="O246">
         <v>1</v>
@@ -13545,7 +13545,7 @@
         <v>0.36409000000000002</v>
       </c>
       <c r="N247">
-        <v>0.84084150627241505</v>
+        <v>0.39322691237607899</v>
       </c>
       <c r="O247">
         <v>1</v>
@@ -13598,7 +13598,7 @@
         <v>0.63436599999999999</v>
       </c>
       <c r="N248">
-        <v>0.84084150627241505</v>
+        <v>0.74875533728778099</v>
       </c>
       <c r="O248">
         <v>-1</v>
@@ -13651,7 +13651,7 @@
         <v>0.48014699999999999</v>
       </c>
       <c r="N249">
-        <v>0.84084150627241505</v>
+        <v>0.61574598841908501</v>
       </c>
       <c r="O249">
         <v>-1</v>
@@ -13704,7 +13704,7 @@
         <v>0.67359999999999998</v>
       </c>
       <c r="N250">
-        <v>0.84084150627241505</v>
+        <v>0.82433462279803305</v>
       </c>
       <c r="O250">
         <v>-1</v>
@@ -13757,7 +13757,7 @@
         <v>0.82953699999999997</v>
       </c>
       <c r="N251">
-        <v>0.84084150627241505</v>
+        <v>0.86113166597155499</v>
       </c>
       <c r="O251">
         <v>-1</v>
@@ -13810,7 +13810,7 @@
         <v>0.370861</v>
       </c>
       <c r="N252">
-        <v>0.84084150627241505</v>
+        <v>0.34676877554484298</v>
       </c>
       <c r="O252">
         <v>1</v>
@@ -13863,7 +13863,7 @@
         <v>0.46070100000000003</v>
       </c>
       <c r="N253">
-        <v>0.84084150627241505</v>
+        <v>0.80579324763984705</v>
       </c>
       <c r="O253">
         <v>-1</v>
@@ -13916,7 +13916,7 @@
         <v>0.78869199999999995</v>
       </c>
       <c r="N254">
-        <v>0.84084150627241505</v>
+        <v>0.89346874634982099</v>
       </c>
       <c r="O254">
         <v>-1</v>
@@ -13969,7 +13969,7 @@
         <v>0.26905400000000002</v>
       </c>
       <c r="N255">
-        <v>0.84084150627241505</v>
+        <v>0.52835051779769304</v>
       </c>
       <c r="O255">
         <v>1</v>
@@ -14022,7 +14022,7 @@
         <v>0.40211000000000002</v>
       </c>
       <c r="N256">
-        <v>0.84084150627241505</v>
+        <v>0.31612221643963501</v>
       </c>
       <c r="O256">
         <v>1</v>
@@ -14075,7 +14075,7 @@
         <v>0.54885300000000004</v>
       </c>
       <c r="N257">
-        <v>0.84084150627241505</v>
+        <v>0.78829035451771601</v>
       </c>
       <c r="O257">
         <v>-1</v>
@@ -14128,7 +14128,7 @@
         <v>0.23298199999999999</v>
       </c>
       <c r="N258">
-        <v>0.84084150627241505</v>
+        <v>0.96537886105192605</v>
       </c>
       <c r="O258">
         <v>-1</v>
@@ -14181,7 +14181,7 @@
         <v>0.411468</v>
       </c>
       <c r="N259">
-        <v>0.84084150627241505</v>
+        <v>0.78039800373058799</v>
       </c>
       <c r="O259">
         <v>-1</v>
@@ -14234,7 +14234,7 @@
         <v>0.35033900000000001</v>
       </c>
       <c r="N260">
-        <v>0.84084150627241505</v>
+        <v>0.95107198061679699</v>
       </c>
       <c r="O260">
         <v>-1</v>
@@ -14287,7 +14287,7 @@
         <v>0.51072200000000001</v>
       </c>
       <c r="N261">
-        <v>0.84084150627241505</v>
+        <v>0.12250574473351</v>
       </c>
       <c r="O261">
         <v>0</v>
@@ -14340,7 +14340,7 @@
         <v>0.126219</v>
       </c>
       <c r="N262">
-        <v>0.84084150627241505</v>
+        <v>0.208494987382119</v>
       </c>
       <c r="O262">
         <v>0</v>
@@ -14393,7 +14393,7 @@
         <v>0.251448</v>
       </c>
       <c r="N263">
-        <v>0.84084150627241505</v>
+        <v>0.65160080528832798</v>
       </c>
       <c r="O263">
         <v>1</v>
@@ -14446,7 +14446,7 @@
         <v>0.28951300000000002</v>
       </c>
       <c r="N264">
-        <v>0.84084150627241505</v>
+        <v>0.85550339556392196</v>
       </c>
       <c r="O264">
         <v>0</v>
@@ -14499,7 +14499,7 @@
         <v>0.35526600000000003</v>
       </c>
       <c r="N265">
-        <v>0.84084150627241505</v>
+        <v>0.69339621716844602</v>
       </c>
       <c r="O265">
         <v>-1</v>
@@ -14552,7 +14552,7 @@
         <v>0.30299399999999999</v>
       </c>
       <c r="N266">
-        <v>0.84084150627241505</v>
+        <v>0.44043597733883499</v>
       </c>
       <c r="O266">
         <v>1</v>
@@ -14605,7 +14605,7 @@
         <v>0.29311999999999999</v>
       </c>
       <c r="N267">
-        <v>0.84084150627241505</v>
+        <v>0.34307183146745601</v>
       </c>
       <c r="O267">
         <v>1</v>
@@ -14658,7 +14658,7 @@
         <v>0.33713599999999999</v>
       </c>
       <c r="N268">
-        <v>0.84084150627241505</v>
+        <v>0.67196111146420601</v>
       </c>
       <c r="O268">
         <v>-1</v>
@@ -14711,7 +14711,7 @@
         <v>0.31711600000000001</v>
       </c>
       <c r="N269">
-        <v>0.84084150627241505</v>
+        <v>0.67633000132847398</v>
       </c>
       <c r="O269">
         <v>-1</v>
@@ -14764,7 +14764,7 @@
         <v>0.31565900000000002</v>
       </c>
       <c r="N270">
-        <v>0.84084150627241505</v>
+        <v>0.68359854906813899</v>
       </c>
       <c r="O270">
         <v>-1</v>
@@ -14817,7 +14817,7 @@
         <v>0.39764300000000002</v>
       </c>
       <c r="N271">
-        <v>0.84084150627241505</v>
+        <v>0.71173483051692998</v>
       </c>
       <c r="O271">
         <v>-1</v>
@@ -14870,7 +14870,7 @@
         <v>0.30647799999999997</v>
       </c>
       <c r="N272">
-        <v>0.84084150627241505</v>
+        <v>0.465669591067358</v>
       </c>
       <c r="O272">
         <v>1</v>
@@ -14923,7 +14923,7 @@
         <v>0.13883100000000001</v>
       </c>
       <c r="N273">
-        <v>0.84084150627241505</v>
+        <v>0.36818653728413298</v>
       </c>
       <c r="O273">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>0.32277400000000001</v>
       </c>
       <c r="N274">
-        <v>0.84084150627241505</v>
+        <v>0.46721534632376499</v>
       </c>
       <c r="O274">
         <v>1</v>
@@ -15029,7 +15029,7 @@
         <v>0.30529200000000001</v>
       </c>
       <c r="N275">
-        <v>0.84084150627241505</v>
+        <v>0.51662814789148503</v>
       </c>
       <c r="O275">
         <v>1</v>
@@ -15082,7 +15082,7 @@
         <v>0.32488800000000001</v>
       </c>
       <c r="N276">
-        <v>0.84084150627241505</v>
+        <v>0.45002968901135498</v>
       </c>
       <c r="O276">
         <v>1</v>
@@ -15135,7 +15135,7 @@
         <v>0.16306899999999999</v>
       </c>
       <c r="N277">
-        <v>0.84084150627241505</v>
+        <v>0.36819298058913102</v>
       </c>
       <c r="O277">
         <v>1</v>
@@ -15188,7 +15188,7 @@
         <v>0.36260300000000001</v>
       </c>
       <c r="N278">
-        <v>0.84084150627241505</v>
+        <v>0.69708101620511098</v>
       </c>
       <c r="O278">
         <v>1</v>
@@ -15241,7 +15241,7 @@
         <v>0.36057400000000001</v>
       </c>
       <c r="N279">
-        <v>0.84084150627241505</v>
+        <v>0.74562206633592598</v>
       </c>
       <c r="O279">
         <v>-1</v>
@@ -15294,7 +15294,7 @@
         <v>0.25780199999999998</v>
       </c>
       <c r="N280">
-        <v>0.84084150627241505</v>
+        <v>0.69449486217074696</v>
       </c>
       <c r="O280">
         <v>-1</v>
@@ -15347,7 +15347,7 @@
         <v>0.29264800000000002</v>
       </c>
       <c r="N281">
-        <v>0.84084150627241505</v>
+        <v>0.39226259565841798</v>
       </c>
       <c r="O281">
         <v>1</v>
@@ -15400,7 +15400,7 @@
         <v>0.226358</v>
       </c>
       <c r="N282">
-        <v>0.84084150627241505</v>
+        <v>0.49133096991692499</v>
       </c>
       <c r="O282">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         <v>0.233817</v>
       </c>
       <c r="N283">
-        <v>0.84084150627241505</v>
+        <v>0.28048813495595898</v>
       </c>
       <c r="O283">
         <v>1</v>
@@ -15506,7 +15506,7 @@
         <v>0.27709899999999998</v>
       </c>
       <c r="N284">
-        <v>0.84084150627241505</v>
+        <v>0.73015633996185403</v>
       </c>
       <c r="O284">
         <v>-1</v>
@@ -15559,7 +15559,7 @@
         <v>0.23163300000000001</v>
       </c>
       <c r="N285">
-        <v>0.84084150627241505</v>
+        <v>0.39975615933637398</v>
       </c>
       <c r="O285">
         <v>1</v>
@@ -15612,7 +15612,7 @@
         <v>0.21481900000000001</v>
       </c>
       <c r="N286">
-        <v>0.84084150627241505</v>
+        <v>0.64611262550952298</v>
       </c>
       <c r="O286">
         <v>1</v>
@@ -15665,7 +15665,7 @@
         <v>0.289933</v>
       </c>
       <c r="N287">
-        <v>0.84084150627241505</v>
+        <v>0.35195060697678299</v>
       </c>
       <c r="O287">
         <v>1</v>
@@ -15718,7 +15718,7 @@
         <v>0.215447</v>
       </c>
       <c r="N288">
-        <v>0.84084150627241505</v>
+        <v>0.41573769124445997</v>
       </c>
       <c r="O288">
         <v>1</v>
@@ -15771,7 +15771,7 @@
         <v>0.19738900000000001</v>
       </c>
       <c r="N289">
-        <v>0.84084150627241505</v>
+        <v>0.25160321759766202</v>
       </c>
       <c r="O289">
         <v>1</v>
@@ -15824,7 +15824,7 @@
         <v>0.11890100000000001</v>
       </c>
       <c r="N290">
-        <v>0.84084150627241505</v>
+        <v>0.20839054055070499</v>
       </c>
       <c r="O290">
         <v>1</v>
@@ -15877,7 +15877,7 @@
         <v>0.36174899999999999</v>
       </c>
       <c r="N291">
-        <v>0.84084150627241505</v>
+        <v>0.81044746389318401</v>
       </c>
       <c r="O291">
         <v>-1</v>
@@ -15930,7 +15930,7 @@
         <v>0.40384700000000001</v>
       </c>
       <c r="N292">
-        <v>0.84084150627241505</v>
+        <v>0.58785683483763496</v>
       </c>
       <c r="O292">
         <v>0</v>
@@ -15983,7 +15983,7 @@
         <v>0.107403</v>
       </c>
       <c r="N293">
-        <v>0.84084150627241505</v>
+        <v>0.29135754718265799</v>
       </c>
       <c r="O293">
         <v>1</v>
@@ -16036,7 +16036,7 @@
         <v>0.37130999999999997</v>
       </c>
       <c r="N294">
-        <v>0.84084150627241505</v>
+        <v>0.50150210442174303</v>
       </c>
       <c r="O294">
         <v>1</v>
@@ -16089,7 +16089,7 @@
         <v>0.22920299999999999</v>
       </c>
       <c r="N295">
-        <v>0.84084150627241505</v>
+        <v>0.485441956843147</v>
       </c>
       <c r="O295">
         <v>0</v>
@@ -16142,7 +16142,7 @@
         <v>0.21693399999999999</v>
       </c>
       <c r="N296">
-        <v>0.84084150627241505</v>
+        <v>0.38445287219832402</v>
       </c>
       <c r="O296">
         <v>1</v>
@@ -16195,7 +16195,7 @@
         <v>0.225659</v>
       </c>
       <c r="N297">
-        <v>0.84084150627241505</v>
+        <v>0.35171599277214899</v>
       </c>
       <c r="O297">
         <v>1</v>
@@ -16248,7 +16248,7 @@
         <v>0.37786199999999998</v>
       </c>
       <c r="N298">
-        <v>0.84084150627241505</v>
+        <v>0.80013665267524403</v>
       </c>
       <c r="O298">
         <v>0</v>
@@ -16301,7 +16301,7 @@
         <v>0.14954899999999999</v>
       </c>
       <c r="N299">
-        <v>0.84084150627241505</v>
+        <v>0.53877380131261199</v>
       </c>
       <c r="O299">
         <v>1</v>
@@ -16354,7 +16354,7 @@
         <v>0.17280300000000001</v>
       </c>
       <c r="N300">
-        <v>0.84084150627241505</v>
+        <v>0.47848744672141602</v>
       </c>
       <c r="O300">
         <v>1</v>
@@ -16407,7 +16407,7 @@
         <v>0.12940099999999999</v>
       </c>
       <c r="N301">
-        <v>0.84084150627241505</v>
+        <v>0.31568705610999398</v>
       </c>
       <c r="O301">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>0.39044000000000001</v>
       </c>
       <c r="N302">
-        <v>0.84084150627241505</v>
+        <v>0.53270280491643895</v>
       </c>
       <c r="O302">
         <v>1</v>
@@ -16513,7 +16513,7 @@
         <v>0.38000200000000001</v>
       </c>
       <c r="N303">
-        <v>0.84084150627241505</v>
+        <v>0.95045533195819898</v>
       </c>
       <c r="O303">
         <v>-1</v>
@@ -16566,7 +16566,7 @@
         <v>0.234268</v>
       </c>
       <c r="N304">
-        <v>0.84084150627241505</v>
+        <v>0.84624151328151997</v>
       </c>
       <c r="O304">
         <v>-1</v>
@@ -16619,7 +16619,7 @@
         <v>0.31108000000000002</v>
       </c>
       <c r="N305">
-        <v>0.84084150627241505</v>
+        <v>0.39041972793666502</v>
       </c>
       <c r="O305">
         <v>1</v>
@@ -16672,7 +16672,7 @@
         <v>0.440249</v>
       </c>
       <c r="N306">
-        <v>0.84084150627241505</v>
+        <v>0.40699404922883597</v>
       </c>
       <c r="O306">
         <v>0</v>
@@ -16725,7 +16725,7 @@
         <v>0.41120000000000001</v>
       </c>
       <c r="N307">
-        <v>0.84084150627241505</v>
+        <v>0.34444626826414798</v>
       </c>
       <c r="O307">
         <v>0</v>
@@ -16778,7 +16778,7 @@
         <v>0.212862</v>
       </c>
       <c r="N308">
-        <v>0.84084150627241505</v>
+        <v>0.59687061277864895</v>
       </c>
       <c r="O308">
         <v>0</v>
@@ -16831,7 +16831,7 @@
         <v>0.14175499999999999</v>
       </c>
       <c r="N309">
-        <v>0.84084150627241505</v>
+        <v>0.56181363697980402</v>
       </c>
       <c r="O309">
         <v>1</v>
@@ -16884,7 +16884,7 @@
         <v>0.34518599999999999</v>
       </c>
       <c r="N310">
-        <v>0.84084150627241505</v>
+        <v>0.75335384278588302</v>
       </c>
       <c r="O310">
         <v>0</v>
@@ -16937,7 +16937,7 @@
         <v>0.218003</v>
       </c>
       <c r="N311">
-        <v>0.84084150627241505</v>
+        <v>0.57284100505570601</v>
       </c>
       <c r="O311">
         <v>1</v>
@@ -16990,7 +16990,7 @@
         <v>0.20136499999999999</v>
       </c>
       <c r="N312">
-        <v>0.84084150627241505</v>
+        <v>0.38361453607971202</v>
       </c>
       <c r="O312">
         <v>0</v>
@@ -17043,7 +17043,7 @@
         <v>0.53998000000000002</v>
       </c>
       <c r="N313">
-        <v>0.84084150627241505</v>
+        <v>0.92466298414453296</v>
       </c>
       <c r="O313">
         <v>0</v>
@@ -17096,7 +17096,7 @@
         <v>0.19045699999999999</v>
       </c>
       <c r="N314">
-        <v>0.84084150627241505</v>
+        <v>0.55463495984565103</v>
       </c>
       <c r="O314">
         <v>0</v>
@@ -17149,7 +17149,7 @@
         <v>0.35363299999999998</v>
       </c>
       <c r="N315">
-        <v>0.84084150627241505</v>
+        <v>0.74400099598801195</v>
       </c>
       <c r="O315">
         <v>0</v>
@@ -17202,7 +17202,7 @@
         <v>0.19952900000000001</v>
       </c>
       <c r="N316">
-        <v>0.84084150627241505</v>
+        <v>0.62062119101463198</v>
       </c>
       <c r="O316">
         <v>1</v>
@@ -17255,7 +17255,7 @@
         <v>0.16577800000000001</v>
       </c>
       <c r="N317">
-        <v>0.84084150627241505</v>
+        <v>0.60757829213125403</v>
       </c>
       <c r="O317">
         <v>1</v>
@@ -17308,7 +17308,7 @@
         <v>0.14324200000000001</v>
       </c>
       <c r="N318">
-        <v>0.84084150627241505</v>
+        <v>0.34216312367549701</v>
       </c>
       <c r="O318">
         <v>0</v>
@@ -17361,7 +17361,7 @@
         <v>0.89853300000000003</v>
       </c>
       <c r="N319">
-        <v>0.84084150627241505</v>
+        <v>0.683775923352827</v>
       </c>
       <c r="O319">
         <v>0</v>
@@ -17414,7 +17414,7 @@
         <v>0.21518000000000001</v>
       </c>
       <c r="N320">
-        <v>0.84084150627241505</v>
+        <v>0.732015766698075</v>
       </c>
       <c r="O320">
         <v>0</v>
@@ -17467,7 +17467,7 @@
         <v>0.52196900000000002</v>
       </c>
       <c r="N321">
-        <v>0.84084150627241505</v>
+        <v>0.44971963058098602</v>
       </c>
       <c r="O321">
         <v>1</v>
@@ -17520,7 +17520,7 @@
         <v>0.69974899999999995</v>
       </c>
       <c r="N322">
-        <v>0.84084150627241505</v>
+        <v>0.65312417660446398</v>
       </c>
       <c r="O322">
         <v>1</v>
@@ -17573,7 +17573,7 @@
         <v>0.58631299999999997</v>
       </c>
       <c r="N323">
-        <v>0.84084150627241505</v>
+        <v>0.496902073201067</v>
       </c>
       <c r="O323">
         <v>1</v>
@@ -17626,7 +17626,7 @@
         <v>0.56823299999999999</v>
       </c>
       <c r="N324">
-        <v>0.84084150627241505</v>
+        <v>0.49740709285058099</v>
       </c>
       <c r="O324">
         <v>1</v>
@@ -17679,7 +17679,7 @@
         <v>0.51575700000000002</v>
       </c>
       <c r="N325">
-        <v>0.84084150627241505</v>
+        <v>0.47034119973583299</v>
       </c>
       <c r="O325">
         <v>1</v>
@@ -17732,7 +17732,7 @@
         <v>0.63286500000000001</v>
       </c>
       <c r="N326">
-        <v>0.84084150627241505</v>
+        <v>0.67541918316884797</v>
       </c>
       <c r="O326">
         <v>-1</v>
@@ -17785,7 +17785,7 @@
         <v>0.590117</v>
       </c>
       <c r="N327">
-        <v>0.84084150627241505</v>
+        <v>0.493113313395729</v>
       </c>
       <c r="O327">
         <v>1</v>
@@ -17838,7 +17838,7 @@
         <v>0.60532399999999997</v>
       </c>
       <c r="N328">
-        <v>0.84084150627241505</v>
+        <v>0.604370249685521</v>
       </c>
       <c r="O328">
         <v>-1</v>
@@ -17891,7 +17891,7 @@
         <v>0.51477499999999998</v>
       </c>
       <c r="N329">
-        <v>0.84084150627241505</v>
+        <v>0.48151318275523097</v>
       </c>
       <c r="O329">
         <v>1</v>
@@ -17944,7 +17944,7 @@
         <v>0.87026199999999998</v>
       </c>
       <c r="N330">
-        <v>0.84084150627241505</v>
+        <v>0.64935350341189801</v>
       </c>
       <c r="O330">
         <v>-1</v>
@@ -17997,7 +17997,7 @@
         <v>0.21717800000000001</v>
       </c>
       <c r="N331">
-        <v>0.84084150627241505</v>
+        <v>0.28981804899112601</v>
       </c>
       <c r="O331">
         <v>1</v>
@@ -18050,7 +18050,7 @@
         <v>0.61905100000000002</v>
       </c>
       <c r="N332">
-        <v>0.84084150627241505</v>
+        <v>0.610340756799156</v>
       </c>
       <c r="O332">
         <v>1</v>
@@ -18103,7 +18103,7 @@
         <v>0.62118600000000002</v>
       </c>
       <c r="N333">
-        <v>0.84084150627241505</v>
+        <v>0.62729494330995805</v>
       </c>
       <c r="O333">
         <v>-1</v>
@@ -18156,7 +18156,7 @@
         <v>0.66219099999999997</v>
       </c>
       <c r="N334">
-        <v>0.84084150627241505</v>
+        <v>0.62256709549572398</v>
       </c>
       <c r="O334">
         <v>1</v>
@@ -18209,7 +18209,7 @@
         <v>0.61749600000000004</v>
       </c>
       <c r="N335">
-        <v>0.84084150627241505</v>
+        <v>0.50661369036475101</v>
       </c>
       <c r="O335">
         <v>1</v>
@@ -18262,7 +18262,7 @@
         <v>0.55945199999999995</v>
       </c>
       <c r="N336">
-        <v>0.84084150627241505</v>
+        <v>0.579135334953643</v>
       </c>
       <c r="O336">
         <v>-1</v>
@@ -18315,7 +18315,7 @@
         <v>0.31831599999999999</v>
       </c>
       <c r="N337">
-        <v>0.84084150627241505</v>
+        <v>0.95243403399777304</v>
       </c>
       <c r="O337">
         <v>-1</v>
@@ -18368,7 +18368,7 @@
         <v>0.380463</v>
       </c>
       <c r="N338">
-        <v>0.84084150627241505</v>
+        <v>0.77210743471166199</v>
       </c>
       <c r="O338">
         <v>-1</v>
@@ -18421,7 +18421,7 @@
         <v>0.41991800000000001</v>
       </c>
       <c r="N339">
-        <v>0.84084150627241505</v>
+        <v>0.59916681827868401</v>
       </c>
       <c r="O339">
         <v>-1</v>
@@ -18474,7 +18474,7 @@
         <v>0.32137300000000002</v>
       </c>
       <c r="N340">
-        <v>0.84084150627241505</v>
+        <v>0.38896664987193902</v>
       </c>
       <c r="O340">
         <v>1</v>
@@ -18527,7 +18527,7 @@
         <v>0.331984</v>
       </c>
       <c r="N341">
-        <v>0.84084150627241505</v>
+        <v>0.43076861587691001</v>
       </c>
       <c r="O341">
         <v>1</v>
@@ -18580,7 +18580,7 @@
         <v>0.78470700000000004</v>
       </c>
       <c r="N342">
-        <v>0.84084150627241505</v>
+        <v>0.74212660922391804</v>
       </c>
       <c r="O342">
         <v>0</v>
@@ -18633,7 +18633,7 @@
         <v>0.50149600000000005</v>
       </c>
       <c r="N343">
-        <v>0.84084150627241505</v>
+        <v>0.60430901496123002</v>
       </c>
       <c r="O343">
         <v>0</v>
@@ -18686,7 +18686,7 @@
         <v>0.71543800000000002</v>
       </c>
       <c r="N344">
-        <v>0.84084150627241505</v>
+        <v>0.73190636021294497</v>
       </c>
       <c r="O344">
         <v>0</v>
@@ -18739,7 +18739,7 @@
         <v>0.18908800000000001</v>
       </c>
       <c r="N345">
-        <v>0.84084150627241505</v>
+        <v>0.29393976994106202</v>
       </c>
       <c r="O345">
         <v>1</v>
@@ -18792,7 +18792,7 @@
         <v>0.36336200000000002</v>
       </c>
       <c r="N346">
-        <v>0.84084150627241505</v>
+        <v>0.40371449702819301</v>
       </c>
       <c r="O346">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>0.39413100000000001</v>
       </c>
       <c r="N347">
-        <v>0.84084150627241505</v>
+        <v>0.544974066636152</v>
       </c>
       <c r="O347">
         <v>1</v>
@@ -18898,7 +18898,7 @@
         <v>0.53880099999999997</v>
       </c>
       <c r="N348">
-        <v>0.84084150627241505</v>
+        <v>0.84980719985513498</v>
       </c>
       <c r="O348">
         <v>-1</v>
@@ -18951,7 +18951,7 @@
         <v>0.39179900000000001</v>
       </c>
       <c r="N349">
-        <v>0.84084150627241505</v>
+        <v>0.874007879169865</v>
       </c>
       <c r="O349">
         <v>-1</v>
@@ -19004,7 +19004,7 @@
         <v>0.39404299999999998</v>
       </c>
       <c r="N350">
-        <v>0.84084150627241505</v>
+        <v>0.88083557938509005</v>
       </c>
       <c r="O350">
         <v>-1</v>
@@ -19057,7 +19057,7 @@
         <v>0.24838199999999999</v>
       </c>
       <c r="N351">
-        <v>0.84084150627241505</v>
+        <v>0.93184044991735904</v>
       </c>
       <c r="O351">
         <v>-1</v>
@@ -19110,7 +19110,7 @@
         <v>0.22522200000000001</v>
       </c>
       <c r="N352">
-        <v>0.84084150627241505</v>
+        <v>0.99684393353884704</v>
       </c>
       <c r="O352">
         <v>1</v>
@@ -19163,7 +19163,7 @@
         <v>0.29723699999999997</v>
       </c>
       <c r="N353">
-        <v>0.84084150627241505</v>
+        <v>0.40668766574878201</v>
       </c>
       <c r="O353">
         <v>1</v>
@@ -19216,7 +19216,7 @@
         <v>0.30010199999999998</v>
       </c>
       <c r="N354">
-        <v>0.84084150627241505</v>
+        <v>0.32623046974033298</v>
       </c>
       <c r="O354">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         <v>0.44096000000000002</v>
       </c>
       <c r="N355">
-        <v>0.84084150627241505</v>
+        <v>0.36286705063439301</v>
       </c>
       <c r="O355">
         <v>0</v>
@@ -19290,7 +19290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FDC657-1DEB-6D4A-8D22-B15F9273A3D1}">
   <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>

--- a/output_ex/param_results.xlsx
+++ b/output_ex/param_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pelin/projects/github_release/recentvschronic/output_ex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4CFAA8-0C4F-024A-B793-E2DACC4978A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE216C9-0861-414C-893E-B62BB3772072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="13920" xr2:uid="{4BB309F5-563A-9045-B150-C7190C524EC1}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:Q355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N355"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/output_ex/param_results.xlsx
+++ b/output_ex/param_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pelin/projects/github_release/recentvschronic/output_ex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE216C9-0861-414C-893E-B62BB3772072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67F4D2A-152D-A84C-8424-DE24934D05A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="13920" xr2:uid="{4BB309F5-563A-9045-B150-C7190C524EC1}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -454,11 +454,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D3DD46-4069-0E49-8987-84A06D114EB7}">
   <dimension ref="A1:Q355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="G258" sqref="G258:G355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
@@ -466,7 +466,7 @@
     <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5.7258842602776201E-2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>1.7381959140000001</v>
       </c>
       <c r="G2" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H2" s="1">
         <v>4.7377593000000003E-2</v>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.6399420061119099E-2</v>
       </c>
@@ -592,7 +592,7 @@
         <v>0.91709678800000005</v>
       </c>
       <c r="G3" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H3" s="1">
         <v>3.8945688999999999E-2</v>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.8023101195310798E-2</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0.31472377800000001</v>
       </c>
       <c r="G4" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H4" s="1">
         <v>4.5335255999999997E-2</v>
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.2326517245223699E-2</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0.134316829</v>
       </c>
       <c r="G5" s="1">
-        <v>1.1450382E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H5" s="1">
         <v>3.5221703E-2</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.21706332784331E-2</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0.28416535199999998</v>
       </c>
       <c r="G6" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H6" s="1">
         <v>4.5240113999999998E-2</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5.8162101342438099E-2</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.42078032599999998</v>
       </c>
       <c r="G7" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H7" s="1">
         <v>4.5503630000000003E-2</v>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.36031466068118E-2</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1.2618880139999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212899E-2</v>
       </c>
       <c r="H8" s="1">
         <v>3.6010287000000002E-2</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.8830044058180899E-2</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0.390873576</v>
       </c>
       <c r="G9" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H9" s="1">
         <v>4.2954671999999999E-2</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.71624997405798E-2</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0.45623599100000001</v>
       </c>
       <c r="G10" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H10" s="1">
         <v>3.5100292999999998E-2</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.2661724940854101E-2</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0.84868273400000005</v>
       </c>
       <c r="G11" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H11" s="1">
         <v>3.7633456000000003E-2</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.7832129688758399E-2</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0.27983054099999999</v>
       </c>
       <c r="G12" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H12" s="1">
         <v>4.7764688E-2</v>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.4330904098014401E-2</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0.18396913000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H13" s="1">
         <v>3.4665204999999998E-2</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.30060773196488E-2</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0.724676612</v>
       </c>
       <c r="G14" s="1">
-        <v>1.1450382E-2</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H14" s="1">
         <v>3.6888240000000003E-2</v>
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5.93377406621668E-2</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0.447274271</v>
       </c>
       <c r="G15" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H15" s="1">
         <v>4.0651436999999999E-2</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7.3021425916161398E-2</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>0.84230410499999997</v>
       </c>
       <c r="G16" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H16" s="1">
         <v>4.4913179999999997E-2</v>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.5734226491062301E-2</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0.215982491</v>
       </c>
       <c r="G17" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H17" s="1">
         <v>3.5739398999999998E-2</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4.02678539190717E-2</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0.54284989299999997</v>
       </c>
       <c r="G18" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H18" s="1">
         <v>4.2489649999999997E-2</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.15478788814366E-2</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0.31746497200000001</v>
       </c>
       <c r="G19" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H19" s="1">
         <v>4.2051303999999998E-2</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.5766539923954399E-2</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0.28550379599999998</v>
       </c>
       <c r="G20" s="1">
-        <v>1.5267176E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H20" s="1">
         <v>3.7952173999999998E-2</v>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7.63384508468263E-3</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0.70519427000000001</v>
       </c>
       <c r="G21" s="1">
-        <v>0.171755725</v>
+        <v>0.47148288973384</v>
       </c>
       <c r="H21" s="1">
         <v>3.7815636E-2</v>
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.2459151711324302E-2</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0.69445444000000001</v>
       </c>
       <c r="G22" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H22" s="1">
         <v>3.8805103000000001E-2</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.03593254820355E-2</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0.32756857900000003</v>
       </c>
       <c r="G23" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H23" s="1">
         <v>5.5728896999999999E-2</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3.43958168537137E-2</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1.340988176</v>
       </c>
       <c r="G24" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H24" s="1">
         <v>2.9978026000000001E-2</v>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3.0274475414714602E-2</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0.37789820299999999</v>
       </c>
       <c r="G25" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H25" s="1">
         <v>3.6216884999999997E-2</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.5075857753951399E-2</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0.199198976</v>
       </c>
       <c r="G26" s="1">
-        <v>3.8167938999999998E-2</v>
+        <v>3.8022813688212899E-2</v>
       </c>
       <c r="H26" s="1">
         <v>3.5628736000000001E-2</v>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.9433932663766799E-2</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0.34141707100000002</v>
       </c>
       <c r="G27" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>4.5627376425855501E-2</v>
       </c>
       <c r="H27" s="1">
         <v>3.5960329999999999E-2</v>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7.0446998243018893E-2</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>1.4558524159999999</v>
       </c>
       <c r="G28" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H28" s="1">
         <v>3.7565877999999997E-2</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3.3030563793058298E-2</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.55815335899999996</v>
       </c>
       <c r="G29" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H29" s="1">
         <v>3.4211990999999997E-2</v>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5.8398348986393497E-2</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>1.071861347</v>
       </c>
       <c r="G30" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H30" s="1">
         <v>3.3844200999999997E-2</v>
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.48296137277225E-2</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>0.31485753900000002</v>
       </c>
       <c r="G31" s="1">
-        <v>0.15267175599999999</v>
+        <v>0.17490494296577899</v>
       </c>
       <c r="H31" s="1">
         <v>4.0903888999999999E-2</v>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.5869605046787701E-2</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0.18857242299999999</v>
       </c>
       <c r="G32" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H32" s="1">
         <v>5.3214973999999998E-2</v>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.4934368482710099E-2</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0.45653677100000001</v>
       </c>
       <c r="G33" s="1">
-        <v>0.11832061100000001</v>
+        <v>0.155893536121673</v>
       </c>
       <c r="H33" s="1">
         <v>3.9837859000000003E-2</v>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.7027769930340001E-2</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>0.29302151900000001</v>
       </c>
       <c r="G34" s="1">
-        <v>0.171755725</v>
+        <v>0.209125475285171</v>
       </c>
       <c r="H34" s="1">
         <v>4.2041431999999997E-2</v>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.9013633326174201E-2</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>8.5655803000000003E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>3.4351145E-2</v>
+        <v>3.04182509505703E-2</v>
       </c>
       <c r="H35" s="1">
         <v>3.6605784000000002E-2</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.2173876010015499E-2</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0.49499945699999998</v>
       </c>
       <c r="G36" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H36" s="1">
         <v>3.3012974E-2</v>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.4267878449679302E-2</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0.60673043199999999</v>
       </c>
       <c r="G37" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H37" s="1">
         <v>3.9848413999999999E-2</v>
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.7406177419347098E-2</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0.36502518499999997</v>
       </c>
       <c r="G38" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H38" s="1">
         <v>3.7509463E-2</v>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.58620766403713E-2</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0.35887328899999998</v>
       </c>
       <c r="G39" s="1">
-        <v>6.1068702000000002E-2</v>
+        <v>9.1254752851711002E-2</v>
       </c>
       <c r="H39" s="1">
         <v>3.9041654000000002E-2</v>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4.3967545579824102E-2</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>3.5898336890000002</v>
       </c>
       <c r="G40" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H40" s="1">
         <v>3.5758167E-2</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4.7253708141257102E-2</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0.42250721800000002</v>
       </c>
       <c r="G41" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H41" s="1">
         <v>3.6501446999999999E-2</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6.2215931250373599E-2</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>1.2997478010000001</v>
       </c>
       <c r="G42" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H42" s="1">
         <v>3.3713242999999997E-2</v>
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.4214248709016201E-2</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0.49997066000000001</v>
       </c>
       <c r="G43" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H43" s="1">
         <v>3.73275E-2</v>
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3.7808039334137199E-2</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0.97140247700000004</v>
       </c>
       <c r="G44" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H44" s="1">
         <v>3.6563439000000003E-2</v>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8.1673473285546194E-2</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0.78943184600000005</v>
       </c>
       <c r="G45" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H45" s="1">
         <v>3.5172964000000001E-2</v>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6.4845418105987901E-2</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1.4382052540000001</v>
       </c>
       <c r="G46" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H46" s="1">
         <v>3.5474687999999997E-2</v>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3.3852162073485202E-2</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0.231968064</v>
       </c>
       <c r="G47" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H47" s="1">
         <v>3.6588111E-2</v>
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3.4793900165122002E-2</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0.36498151299999998</v>
       </c>
       <c r="G48" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H48" s="1">
         <v>3.7692618999999997E-2</v>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.1115710097488697E-2</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0.37735461399999998</v>
       </c>
       <c r="G49" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H49" s="1">
         <v>3.5621208000000001E-2</v>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7.7784326846944196E-2</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>1.1239700109999999</v>
       </c>
       <c r="G50" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H50" s="1">
         <v>3.5265118999999998E-2</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6.5766285864438695E-2</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0.63709871100000004</v>
       </c>
       <c r="G51" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H51" s="1">
         <v>3.4783446000000003E-2</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.39360129794597E-2</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0.82630257500000004</v>
       </c>
       <c r="G52" s="1">
-        <v>0.164122137</v>
+        <v>0.17870722433460101</v>
       </c>
       <c r="H52" s="1">
         <v>3.9939761999999997E-2</v>
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5.1517732900895702E-2</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0.66845735299999998</v>
       </c>
       <c r="G53" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H53" s="1">
         <v>3.7217937E-2</v>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.97545516221883E-2</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0.24807415699999999</v>
       </c>
       <c r="G54" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>3.4220532319391601E-2</v>
       </c>
       <c r="H54" s="1">
         <v>3.6907272999999997E-2</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3.68558516855532E-2</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0.525295968</v>
       </c>
       <c r="G55" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H55" s="1">
         <v>4.6393139E-2</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3.37244013074511E-2</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>0.37123181500000002</v>
       </c>
       <c r="G56" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H56" s="1">
         <v>5.3453922000000001E-2</v>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.4941441142616399E-2</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0.177753086</v>
       </c>
       <c r="G57" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H57" s="1">
         <v>4.2720134E-2</v>
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4.6355845550426301E-2</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>0.35077906199999997</v>
       </c>
       <c r="G58" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H58" s="1">
         <v>3.6251380999999999E-2</v>
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4.2917918378862802E-2</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1.197513286</v>
       </c>
       <c r="G59" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H59" s="1">
         <v>3.4140917999999999E-2</v>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3.7734854937390497E-2</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>1.3151535110000001</v>
       </c>
       <c r="G60" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H60" s="1">
         <v>4.8881866000000003E-2</v>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2.0874385507456499E-2</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.79101690599999996</v>
       </c>
       <c r="G61" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H61" s="1">
         <v>5.8764044000000001E-2</v>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.7005991737093799E-2</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>0.95285620699999996</v>
       </c>
       <c r="G62" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H62" s="1">
         <v>5.2656482999999997E-2</v>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2.3238974025765202E-2</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0.15454577</v>
       </c>
       <c r="G63" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H63" s="1">
         <v>3.3042536999999997E-2</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1.40111228348598E-2</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>0.26511293899999999</v>
       </c>
       <c r="G64" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H64" s="1">
         <v>4.1928039E-2</v>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2.2539113671460002E-2</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0.59531875499999998</v>
       </c>
       <c r="G65" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H65" s="1">
         <v>3.5385496000000002E-2</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4.16784082088364E-2</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>1.4816719389999999</v>
       </c>
       <c r="G66" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H66" s="1">
         <v>3.4589702E-2</v>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3.01431382331292E-2</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>2.5064926430000001</v>
       </c>
       <c r="G67" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H67" s="1">
         <v>3.2374469000000003E-2</v>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3.3455793292651297E-2</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0.99694069600000002</v>
       </c>
       <c r="G68" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H68" s="1">
         <v>3.4527806000000001E-2</v>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7.4212769220496994E-2</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0.86322197300000003</v>
       </c>
       <c r="G69" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H69" s="1">
         <v>3.465497E-2</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6.7409510432742001E-2</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>2.1904444029999999</v>
       </c>
       <c r="G70" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H70" s="1">
         <v>3.5772838000000001E-2</v>
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2.595291742947E-2</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>0.71359363499999995</v>
       </c>
       <c r="G71" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H71" s="1">
         <v>6.3669661000000002E-2</v>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7.9960003952665296E-2</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0.599351309</v>
       </c>
       <c r="G72" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H72" s="1">
         <v>3.3640751000000003E-2</v>
@@ -4282,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5.6513861960433197E-2</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>0.87982754399999996</v>
       </c>
       <c r="G73" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H73" s="1">
         <v>3.1931996999999997E-2</v>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8.2925031497763493E-2</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1.4943537490000001</v>
       </c>
       <c r="G74" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H74" s="1">
         <v>3.2205630999999998E-2</v>
@@ -4388,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4.3206323829235102E-2</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1.1659190319999999</v>
       </c>
       <c r="G75" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H75" s="1">
         <v>3.5348153E-2</v>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2.26946325586279E-2</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0.37889592900000002</v>
       </c>
       <c r="G76" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H76" s="1">
         <v>3.6229193E-2</v>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2.47226525215541E-2</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0.156712194</v>
       </c>
       <c r="G77" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H77" s="1">
         <v>7.5258578000000007E-2</v>
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6.1566859964521201E-2</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0.920023374</v>
       </c>
       <c r="G78" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H78" s="1">
         <v>5.2477371000000002E-2</v>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.2707910797662101E-2</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>1.143953631</v>
       </c>
       <c r="G79" s="1">
-        <v>0.13740458</v>
+        <v>0.144486692015209</v>
       </c>
       <c r="H79" s="1">
         <v>3.9220392999999999E-2</v>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5.6949414646083503E-2</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>1.543748001</v>
       </c>
       <c r="G80" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H80" s="1">
         <v>4.8770808999999998E-2</v>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.3903945905524601E-2</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>0.172863719</v>
       </c>
       <c r="G81" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H81" s="1">
         <v>4.0131734000000002E-2</v>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1.8733191134192698E-2</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>1.7524402480000001</v>
       </c>
       <c r="G82" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H82" s="1">
         <v>6.4833514999999994E-2</v>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2.4801912676457701E-2</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1.7546783340000001</v>
       </c>
       <c r="G83" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H83" s="1">
         <v>5.5885259999999999E-2</v>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5.2858330904116499E-2</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>3.3209835980000002</v>
       </c>
       <c r="G84" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H84" s="1">
         <v>3.5096904999999998E-2</v>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5.54949960024562E-2</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>1.075536442</v>
       </c>
       <c r="G85" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H85" s="1">
         <v>3.9716932000000003E-2</v>
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2.2573660127069899E-2</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>0.19699338799999999</v>
       </c>
       <c r="G86" s="1">
-        <v>1.9305019E-2</v>
+        <v>3.4615384615384603E-2</v>
       </c>
       <c r="H86" s="1">
         <v>3.7722770000000003E-2</v>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3.9067908812226701E-2</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>1.1900320360000001</v>
       </c>
       <c r="G87" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H87" s="1">
         <v>3.6501432E-2</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2.5685134263949399E-2</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0.81020141099999998</v>
       </c>
       <c r="G88" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H88" s="1">
         <v>6.4018448000000006E-2</v>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6.9249605833482303E-2</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0.96022618999999998</v>
       </c>
       <c r="G89" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H89" s="1">
         <v>3.7238651999999997E-2</v>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4.6964513626760601E-2</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>1.2141640499999999</v>
       </c>
       <c r="G90" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H90" s="1">
         <v>3.7094528000000002E-2</v>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1.3577628592613401E-2</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0.85255759099999995</v>
       </c>
       <c r="G91" s="1">
-        <v>8.7786260000000005E-2</v>
+        <v>0.10266159695817501</v>
       </c>
       <c r="H91" s="1">
         <v>3.8655211000000002E-2</v>
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2.0786334205085199E-2</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0.254227327</v>
       </c>
       <c r="G92" s="1">
-        <v>1.1450382E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H92" s="1">
         <v>3.4778964000000002E-2</v>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4.5618041704195297E-2</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>0.90426638299999995</v>
       </c>
       <c r="G93" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H93" s="1">
         <v>4.0236471000000003E-2</v>
@@ -5395,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1.20371811481121E-2</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0.88826667100000001</v>
       </c>
       <c r="G94" s="1">
-        <v>7.6335877999999996E-2</v>
+        <v>8.3650190114068407E-2</v>
       </c>
       <c r="H94" s="1">
         <v>4.0669102999999998E-2</v>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.1807374918575699E-2</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>0.31275799799999998</v>
       </c>
       <c r="G95" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H95" s="1">
         <v>3.6265420999999999E-2</v>
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1.3374821768060799E-2</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>0.71758188999999994</v>
       </c>
       <c r="G96" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H96" s="1">
         <v>6.4103635000000006E-2</v>
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1.52991788873312E-2</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0.36457953799999998</v>
       </c>
       <c r="G97" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H97" s="1">
         <v>3.8879611000000001E-2</v>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6.6268180870256904E-2</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>1.1220556290000001</v>
       </c>
       <c r="G98" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H98" s="1">
         <v>4.1343132999999997E-2</v>
@@ -5660,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2.3699968750345E-2</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0.155697063</v>
       </c>
       <c r="G99" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H99" s="1">
         <v>3.4079757000000002E-2</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1.9754210286754701E-2</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>2.9777113019999999</v>
       </c>
       <c r="G100" s="1">
-        <v>3.8610039999999999E-3</v>
+        <v>7.6923076923076901E-3</v>
       </c>
       <c r="H100" s="1">
         <v>7.1575568000000006E-2</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5.9801766750058501E-2</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>0.92748976699999996</v>
       </c>
       <c r="G101" s="1">
-        <v>3.8610039999999999E-3</v>
+        <v>7.6923076923076901E-3</v>
       </c>
       <c r="H101" s="1">
         <v>3.7565267999999999E-2</v>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>9.2577285501735801E-3</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0.95037929799999998</v>
       </c>
       <c r="G102" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H102" s="1">
         <v>6.8243416000000001E-2</v>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1.6329102342294399E-2</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>0.32185915999999998</v>
       </c>
       <c r="G103" s="1">
-        <v>1.9305019E-2</v>
+        <v>2.3076923076923099E-2</v>
       </c>
       <c r="H103" s="1">
         <v>3.7390100000000003E-2</v>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4.1426456954419599E-2</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>0.395172407</v>
       </c>
       <c r="G104" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H104" s="1">
         <v>4.0696533E-2</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2.26233133570128E-2</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>0.25992799799999999</v>
       </c>
       <c r="G105" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H105" s="1">
         <v>4.2125036999999997E-2</v>
@@ -6031,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2.00804693342321E-2</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>0.87831557500000002</v>
       </c>
       <c r="G106" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H106" s="1">
         <v>7.4825817000000003E-2</v>
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5.8635007393324903E-2</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1.273159052</v>
       </c>
       <c r="G107" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H107" s="1">
         <v>6.9237038000000001E-2</v>
@@ -6137,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3.3600021123785399E-2</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>2.3044847709999998</v>
       </c>
       <c r="G108" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H108" s="1">
         <v>9.4154678000000006E-2</v>
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1.29186786635801E-2</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0.35584718700000001</v>
       </c>
       <c r="G109" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H109" s="1">
         <v>6.8448336999999998E-2</v>
@@ -6243,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4.9091836954724799E-2</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0.727086593</v>
       </c>
       <c r="G110" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H110" s="1">
         <v>5.5182634000000001E-2</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6.4141611621036904E-2</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>5.2200325430000003</v>
       </c>
       <c r="G111" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H111" s="1">
         <v>3.3561293999999998E-2</v>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1.6130003941704101E-2</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0.102140877</v>
       </c>
       <c r="G112" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H112" s="1">
         <v>4.2938352999999999E-2</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.0808432057612101E-2</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>0.47158589099999998</v>
       </c>
       <c r="G113" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H113" s="1">
         <v>5.3517469999999998E-2</v>
@@ -6455,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4.1164161780420802E-2</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0.54868699099999996</v>
       </c>
       <c r="G114" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H114" s="1">
         <v>3.5685876999999998E-2</v>
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>6.3692059071531096E-2</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>0.69819952500000004</v>
       </c>
       <c r="G115" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H115" s="1">
         <v>3.4753137000000003E-2</v>
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>6.3427493479558797E-2</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>0.48299405499999998</v>
       </c>
       <c r="G116" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H116" s="1">
         <v>3.4890665000000001E-2</v>
@@ -6614,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3.2829737634438597E-2</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1.2505456720000001</v>
       </c>
       <c r="G117" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H117" s="1">
         <v>5.9422743E-2</v>
@@ -6667,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.9170520478377001E-2</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>1.460048923</v>
       </c>
       <c r="G118" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H118" s="1">
         <v>4.0721685000000001E-2</v>
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2.8908322494064598E-2</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>1.13348541</v>
       </c>
       <c r="G119" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H119" s="1">
         <v>4.0330194E-2</v>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3.01360503802281E-2</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0.60450019799999999</v>
       </c>
       <c r="G120" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H120" s="1">
         <v>5.6893407999999999E-2</v>
@@ -6826,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>5.8493831447251302E-2</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>0.70362776500000002</v>
       </c>
       <c r="G121" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H121" s="1">
         <v>4.2955117000000001E-2</v>
@@ -6879,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4.9103876632518501E-2</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0.72318859000000002</v>
       </c>
       <c r="G122" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H122" s="1">
         <v>3.6859041000000002E-2</v>
@@ -6932,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.6114058009565699E-2</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>0.63677963599999998</v>
       </c>
       <c r="G123" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>3.8022813688212899E-2</v>
       </c>
       <c r="H123" s="1">
         <v>7.1420121000000003E-2</v>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.9472769204659599E-2</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>0.55581415599999995</v>
       </c>
       <c r="G124" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>3.4220532319391601E-2</v>
       </c>
       <c r="H124" s="1">
         <v>5.7901015E-2</v>
@@ -7038,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3.9003979577412501E-2</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>0.42880262000000002</v>
       </c>
       <c r="G125" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H125" s="1">
         <v>3.4112924000000003E-2</v>
@@ -7091,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.8978077862056901E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>1.0763924469999999</v>
       </c>
       <c r="G126" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H126" s="1">
         <v>6.4299605999999995E-2</v>
@@ -7144,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.6918727955904898E-2</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>0.33350116899999999</v>
       </c>
       <c r="G127" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>3.04182509505703E-2</v>
       </c>
       <c r="H127" s="1">
         <v>5.1626200999999997E-2</v>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.4123167088468501E-2</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>1.065977859</v>
       </c>
       <c r="G128" s="1">
-        <v>1.5267176E-2</v>
+        <v>4.1825095057034203E-2</v>
       </c>
       <c r="H128" s="1">
         <v>6.0224331999999998E-2</v>
@@ -7250,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2.2023130544993701E-2</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>0.66695512800000001</v>
       </c>
       <c r="G129" s="1">
-        <v>1.5267176E-2</v>
+        <v>3.04182509505703E-2</v>
       </c>
       <c r="H129" s="1">
         <v>5.6979584999999999E-2</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2.1589574747312001E-2</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0.217410094</v>
       </c>
       <c r="G130" s="1">
-        <v>3.515625E-2</v>
+        <v>3.1128404669260701E-2</v>
       </c>
       <c r="H130" s="1">
         <v>5.6135963999999997E-2</v>
@@ -7356,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1.2010553270738E-2</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0.34683941099999999</v>
       </c>
       <c r="G131" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>5.3231939163498103E-2</v>
       </c>
       <c r="H131" s="1">
         <v>5.8164591000000002E-2</v>
@@ -7409,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2.3095750153606501E-2</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0.42731328800000001</v>
       </c>
       <c r="G132" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H132" s="1">
         <v>4.1661660000000003E-2</v>
@@ -7462,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3.4903476651059799E-2</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>0.83288533200000003</v>
       </c>
       <c r="G133" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H133" s="1">
         <v>3.8623824000000001E-2</v>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2.1919930383886298E-2</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>0.285133998</v>
       </c>
       <c r="G134" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H134" s="1">
         <v>3.7545927999999999E-2</v>
@@ -7568,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3.1519391634980999E-2</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>2.0461075759999998</v>
       </c>
       <c r="G135" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H135" s="1">
         <v>5.5648357000000002E-2</v>
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4.8701765878087201E-2</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>1.7670953060000001</v>
       </c>
       <c r="G136" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H136" s="1">
         <v>3.7973298000000003E-2</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1.4417356858329001E-2</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>0.53905396400000005</v>
       </c>
       <c r="G137" s="1">
-        <v>1.1450382E-2</v>
+        <v>0.114068441064639</v>
       </c>
       <c r="H137" s="1">
         <v>3.9494203999999998E-2</v>
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1.5752397940822099E-2</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>9.4440233999999998E-2</v>
       </c>
       <c r="G138" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H138" s="1">
         <v>3.4467190000000002E-2</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3.4566233713931797E-2</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>1.43117513</v>
       </c>
       <c r="G139" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H139" s="1">
         <v>3.4520607000000002E-2</v>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2.2699530236195101E-2</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>0.43505880200000002</v>
       </c>
       <c r="G140" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H140" s="1">
         <v>3.1349837999999998E-2</v>
@@ -7886,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>8.9580431241108704E-2</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>1.0423071290000001</v>
       </c>
       <c r="G141" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H141" s="1">
         <v>3.6729868999999998E-2</v>
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3.3788807017259601E-2</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>0.30112967499999999</v>
       </c>
       <c r="G142" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H142" s="1">
         <v>3.4190391000000001E-2</v>
@@ -7992,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3.0950479280101199E-2</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>0.32249270600000002</v>
       </c>
       <c r="G143" s="1">
-        <v>1.1450382E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H143" s="1">
         <v>3.9425627999999997E-2</v>
@@ -8045,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>6.4186847955461507E-2</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>0.42817869600000003</v>
       </c>
       <c r="G144" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H144" s="1">
         <v>3.2688992E-2</v>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2.99513281154071E-2</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>0.20461193899999999</v>
       </c>
       <c r="G145" s="1">
-        <v>1.1450382E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H145" s="1">
         <v>3.6854827999999999E-2</v>
@@ -8151,7 +8151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.12415275252108E-2</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>1.2340279270000001</v>
       </c>
       <c r="G146" s="1">
-        <v>6.4885496000000001E-2</v>
+        <v>6.4638783269962002E-2</v>
       </c>
       <c r="H146" s="1">
         <v>4.1129105999999999E-2</v>
@@ -8204,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4.38913040199101E-2</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>0.67444816900000004</v>
       </c>
       <c r="G147" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H147" s="1">
         <v>3.4269946000000003E-2</v>
@@ -8257,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3.6848182756313699E-2</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>2.0028335780000002</v>
       </c>
       <c r="G148" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H148" s="1">
         <v>3.6863768999999998E-2</v>
@@ -8310,7 +8310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2.1247090017777699E-2</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0.292763787</v>
       </c>
       <c r="G149" s="1">
-        <v>4.1984733000000003E-2</v>
+        <v>4.9429657794676798E-2</v>
       </c>
       <c r="H149" s="1">
         <v>3.6484463000000002E-2</v>
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3.5831869982765399E-2</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0.84937394200000005</v>
       </c>
       <c r="G150" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H150" s="1">
         <v>3.2258176999999999E-2</v>
@@ -8416,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3.4426991445809803E-2</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>1.3166175069999999</v>
       </c>
       <c r="G151" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H151" s="1">
         <v>3.8349185000000001E-2</v>
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.64709526020092E-2</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>0.250558899</v>
       </c>
       <c r="G152" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H152" s="1">
         <v>3.3532469000000002E-2</v>
@@ -8522,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2.40595626099833E-2</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0.25619944700000002</v>
       </c>
       <c r="G153" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H153" s="1">
         <v>3.3448389000000002E-2</v>
@@ -8575,7 +8575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.2596523963761E-2</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H154" s="1">
         <v>4.5524674000000001E-2</v>
@@ -8628,7 +8628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.5202172732210801E-2</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>0.17811687800000001</v>
       </c>
       <c r="G155" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>3.04182509505703E-2</v>
       </c>
       <c r="H155" s="1">
         <v>3.8515769999999998E-2</v>
@@ -8681,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4.5427022859053999E-2</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>0.439171694</v>
       </c>
       <c r="G156" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H156" s="1">
         <v>3.0015941000000001E-2</v>
@@ -8734,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>3.2698067820283998E-2</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>1.3117768940000001</v>
       </c>
       <c r="G157" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H157" s="1">
         <v>4.8470491999999997E-2</v>
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3.9736551503926201E-2</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>0.31125504999999998</v>
       </c>
       <c r="G158" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H158" s="1">
         <v>3.4864609999999997E-2</v>
@@ -8840,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2.51162927267779E-2</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>0.37389200700000003</v>
       </c>
       <c r="G159" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H159" s="1">
         <v>3.6959929000000002E-2</v>
@@ -8893,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.7919736144097299E-2</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>0.48623739700000002</v>
       </c>
       <c r="G160" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>9.1254752851711002E-2</v>
       </c>
       <c r="H160" s="1">
         <v>3.8589930000000001E-2</v>
@@ -8946,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3.9446296606898003E-2</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>0.29232472599999998</v>
       </c>
       <c r="G161" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H161" s="1">
         <v>3.2930955999999997E-2</v>
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>3.1598423274981899E-2</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>1.711872982</v>
       </c>
       <c r="G162" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H162" s="1">
         <v>3.8167394E-2</v>
@@ -9052,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2.9519693221206299E-2</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>0.33312039500000001</v>
       </c>
       <c r="G163" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H163" s="1">
         <v>3.8680950999999998E-2</v>
@@ -9105,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6.7875216261128898E-2</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>0.97148760899999997</v>
       </c>
       <c r="G164" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H164" s="1">
         <v>3.7875876000000003E-2</v>
@@ -9158,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>5.6160068856027402E-2</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>0.55090240300000004</v>
       </c>
       <c r="G165" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H165" s="1">
         <v>3.6440478999999998E-2</v>
@@ -9211,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6.0928298540189302E-2</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>0.41743376900000001</v>
       </c>
       <c r="G166" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H166" s="1">
         <v>3.2709783999999999E-2</v>
@@ -9264,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.36929657794677E-2</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>0.13173879499999999</v>
       </c>
       <c r="G167" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H167" s="1">
         <v>4.3892581E-2</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5.1479627948499897E-2</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>1.0839217489999999</v>
       </c>
       <c r="G168" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H168" s="1">
         <v>3.8384728E-2</v>
@@ -9370,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.9077936733064699E-2</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>0.48449064200000003</v>
       </c>
       <c r="G169" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H169" s="1">
         <v>3.3000941999999998E-2</v>
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>3.0573920862319599E-2</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>0.100339874</v>
       </c>
       <c r="G170" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H170" s="1">
         <v>3.2691936999999997E-2</v>
@@ -9476,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2.7645298857190099E-2</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>0.103028048</v>
       </c>
       <c r="G171" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H171" s="1">
         <v>3.2295128999999999E-2</v>
@@ -9529,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>5.1962581304417603E-2</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>0.99807171500000003</v>
       </c>
       <c r="G172" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H172" s="1">
         <v>3.4150294999999997E-2</v>
@@ -9582,7 +9582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.7521884150633299E-2</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>0.135710779</v>
       </c>
       <c r="G173" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H173" s="1">
         <v>3.5251561000000001E-2</v>
@@ -9635,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.53471527813716E-2</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>0.24980016099999999</v>
       </c>
       <c r="G174" s="1">
-        <v>1.5267176E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H174" s="1">
         <v>3.4386947000000001E-2</v>
@@ -9688,7 +9688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>6.3552110790162403E-2</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>0.367282685</v>
       </c>
       <c r="G175" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H175" s="1">
         <v>3.4586632999999999E-2</v>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1.7805073669201501E-2</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>4.9501095000000002E-2</v>
       </c>
       <c r="G176" s="1">
-        <v>1.5267176E-2</v>
+        <v>3.04182509505703E-2</v>
       </c>
       <c r="H176" s="1">
         <v>3.4074792999999999E-2</v>
@@ -9794,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1.82402190339255E-2</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>0.68682349300000001</v>
       </c>
       <c r="G177" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H177" s="1">
         <v>3.7094267E-2</v>
@@ -9847,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4.4315487607412399E-2</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>0.74365144100000002</v>
       </c>
       <c r="G178" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H178" s="1">
         <v>3.6398461E-2</v>
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>5.8993797168419897E-2</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>0.55090812</v>
       </c>
       <c r="G179" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H179" s="1">
         <v>3.5831229999999999E-2</v>
@@ -9953,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3.5657208837938E-2</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>0.679222353</v>
       </c>
       <c r="G180" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H180" s="1">
         <v>3.9339315E-2</v>
@@ -10006,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4.8159411568744197E-2</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>0.27325372599999997</v>
       </c>
       <c r="G181" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H181" s="1">
         <v>3.6605292999999997E-2</v>
@@ -10059,7 +10059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.6819201208709E-2</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>2.0042662720000002</v>
       </c>
       <c r="G182" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H182" s="1">
         <v>3.4236625E-2</v>
@@ -10112,7 +10112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4.4062992711979797E-2</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>0.66349927500000005</v>
       </c>
       <c r="G183" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H183" s="1">
         <v>3.3870851E-2</v>
@@ -10165,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1.9234666364407599E-2</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>0.12074520399999999</v>
       </c>
       <c r="G184" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H184" s="1">
         <v>3.2264332E-2</v>
@@ -10218,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2.4764411253796099E-2</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>0.63018135099999995</v>
       </c>
       <c r="G185" s="1">
-        <v>3.8167938999999998E-2</v>
+        <v>4.1825095057034203E-2</v>
       </c>
       <c r="H185" s="1">
         <v>3.9247150000000001E-2</v>
@@ -10271,7 +10271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3.7256389505522597E-2</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>1.3688788190000001</v>
       </c>
       <c r="G186" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H186" s="1">
         <v>3.8626916999999997E-2</v>
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>6.1339112204307697E-2</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>0.69555056199999998</v>
       </c>
       <c r="G187" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H187" s="1">
         <v>9.1143158000000002E-2</v>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>5.6405744273010103E-3</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>0.120022405</v>
       </c>
       <c r="G188" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H188" s="1">
         <v>6.1602175000000002E-2</v>
@@ -10430,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2.06578749821059E-2</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>0.83134784699999997</v>
       </c>
       <c r="G189" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H189" s="1">
         <v>3.7431790999999999E-2</v>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1.3665339186410099E-2</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>6.8127683999999994E-2</v>
       </c>
       <c r="G190" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>3.04182509505703E-2</v>
       </c>
       <c r="H190" s="1">
         <v>3.9048503999999998E-2</v>
@@ -10536,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5.67613031582214E-2</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>1.0445795959999999</v>
       </c>
       <c r="G191" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H191" s="1">
         <v>3.2224139999999998E-2</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6.8770854349344303E-3</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0.64993572499999996</v>
       </c>
       <c r="G192" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H192" s="1">
         <v>5.4115431999999998E-2</v>
@@ -10642,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4.6859760231996499E-2</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>1.0040769190000001</v>
       </c>
       <c r="G193" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H193" s="1">
         <v>3.6226017999999999E-2</v>
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2.5400624800207501E-2</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>0.43239371999999998</v>
       </c>
       <c r="G194" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H194" s="1">
         <v>3.2907432E-2</v>
@@ -10748,7 +10748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1.8381152219053402E-2</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>0.20258335099999999</v>
       </c>
       <c r="G195" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H195" s="1">
         <v>4.4016807999999998E-2</v>
@@ -10801,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>5.68248844043268E-2</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>0.81420517699999995</v>
       </c>
       <c r="G196" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H196" s="1">
         <v>4.4153923999999997E-2</v>
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1.16016978608218E-2</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>0.47566133100000002</v>
       </c>
       <c r="G197" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H197" s="1">
         <v>4.9500155999999997E-2</v>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1.7490041733828201E-2</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>6.3780824999999999E-2</v>
       </c>
       <c r="G198" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H198" s="1">
         <v>3.9951194000000002E-2</v>
@@ -10960,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4.0323191620563498E-2</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>0.41436305899999998</v>
       </c>
       <c r="G199" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H199" s="1">
         <v>3.6602449000000002E-2</v>
@@ -11013,7 +11013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1.22179974651458E-2</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>0.33257954899999997</v>
       </c>
       <c r="G200" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H200" s="1">
         <v>6.3676909000000004E-2</v>
@@ -11066,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2.5947354264154E-2</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>0.54882691900000002</v>
       </c>
       <c r="G201" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H201" s="1">
         <v>3.4038240999999997E-2</v>
@@ -11119,7 +11119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1.51067625131295E-2</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>0.175801506</v>
       </c>
       <c r="G202" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H202" s="1">
         <v>3.5049506000000001E-2</v>
@@ -11172,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1.3075623151668801E-2</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>0.49298777700000002</v>
       </c>
       <c r="G203" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H203" s="1">
         <v>4.6137676000000002E-2</v>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2.8013002807629899E-2</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1.1150178980000001</v>
       </c>
       <c r="G204" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H204" s="1">
         <v>6.8596885999999996E-2</v>
@@ -11278,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2.4274608592767099E-2</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>0.44528487900000002</v>
       </c>
       <c r="G205" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H205" s="1">
         <v>5.7785817000000003E-2</v>
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3.53210554590642E-2</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>2.0165673590000002</v>
       </c>
       <c r="G206" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H206" s="1">
         <v>7.6303836E-2</v>
@@ -11384,7 +11384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1.0189827952132699E-2</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>4.5163611999999999E-2</v>
       </c>
       <c r="G207" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H207" s="1">
         <v>4.0205072000000001E-2</v>
@@ -11437,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>5.6383025721865897E-2</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>1.2096855399999999</v>
       </c>
       <c r="G208" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H208" s="1">
         <v>3.1938125999999997E-2</v>
@@ -11490,7 +11490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1.52426681792987E-2</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>0.36226868299999998</v>
       </c>
       <c r="G209" s="1">
-        <v>1.1450382E-2</v>
+        <v>3.04182509505703E-2</v>
       </c>
       <c r="H209" s="1">
         <v>3.6695503999999997E-2</v>
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>4.9151768025711702E-2</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>0.47440663900000002</v>
       </c>
       <c r="G210" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H210" s="1">
         <v>3.1514688999999999E-2</v>
@@ -11596,7 +11596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4.7803944942699003E-2</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>1.2449112790000001</v>
       </c>
       <c r="G211" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H211" s="1">
         <v>3.2137983000000002E-2</v>
@@ -11649,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1.2425261102036201E-2</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>6.1255745E-2</v>
       </c>
       <c r="G212" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H212" s="1">
         <v>3.4748519999999998E-2</v>
@@ -11702,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4.9341305522765597E-2</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>1.1574522199999999</v>
       </c>
       <c r="G213" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H213" s="1">
         <v>3.4504424999999998E-2</v>
@@ -11755,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2.1916243347697501E-2</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>0.59763898100000001</v>
       </c>
       <c r="G214" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H214" s="1">
         <v>3.2786332000000001E-2</v>
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4.7941091043515002E-2</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>0.304617576</v>
       </c>
       <c r="G215" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H215" s="1">
         <v>3.6424862000000002E-2</v>
@@ -11861,7 +11861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3.4179797747028999E-2</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>1.091071549</v>
       </c>
       <c r="G216" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H216" s="1">
         <v>4.7216991E-2</v>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1.10200564121935E-2</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>0.53817447299999999</v>
       </c>
       <c r="G217" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H217" s="1">
         <v>5.3729432000000001E-2</v>
@@ -11967,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1.5830032066801201E-2</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>9.1666712999999997E-2</v>
       </c>
       <c r="G218" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H218" s="1">
         <v>4.0938367000000003E-2</v>
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5.7640999896480201E-2</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>0.783164203</v>
       </c>
       <c r="G219" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H219" s="1">
         <v>3.4647023999999998E-2</v>
@@ -12073,7 +12073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3.5808113315799098E-2</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>1.0143242180000001</v>
       </c>
       <c r="G220" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H220" s="1">
         <v>3.4800837000000001E-2</v>
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3.1155985658042399E-2</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>0.44219715100000001</v>
       </c>
       <c r="G221" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H221" s="1">
         <v>2.9734946000000002E-2</v>
@@ -12179,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>6.3339653332291398E-2</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>0.66883436100000004</v>
       </c>
       <c r="G222" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H222" s="1">
         <v>3.7000713999999997E-2</v>
@@ -12232,7 +12232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2.47482473859316E-2</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>0.41175343399999997</v>
       </c>
       <c r="G223" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H223" s="1">
         <v>4.1522016000000002E-2</v>
@@ -12285,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5.2428975681524499E-2</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>1.132654558</v>
       </c>
       <c r="G224" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H224" s="1">
         <v>3.6861439000000003E-2</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>5.5814882002535697E-2</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>0.70526080300000005</v>
       </c>
       <c r="G225" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H225" s="1">
         <v>3.6946592E-2</v>
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>5.4865582928057897E-2</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>0.738289839</v>
       </c>
       <c r="G226" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H226" s="1">
         <v>3.1767409000000003E-2</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2.3098671826370001E-2</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>1.106678759</v>
       </c>
       <c r="G227" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H227" s="1">
         <v>3.0421566000000001E-2</v>
@@ -12497,7 +12497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1.76914561898322E-2</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>0.25358913599999999</v>
       </c>
       <c r="G228" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H228" s="1">
         <v>5.3006109000000003E-2</v>
@@ -12550,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4.5822028092888802E-2</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>0.46663363600000002</v>
       </c>
       <c r="G229" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H229" s="1">
         <v>3.4628018000000003E-2</v>
@@ -12603,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1.7287434101443799E-2</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>0.117658159</v>
       </c>
       <c r="G230" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H230" s="1">
         <v>3.6772671E-2</v>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>8.1170762895115198E-2</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>0.478319351</v>
       </c>
       <c r="G231" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H231" s="1">
         <v>3.2119354000000003E-2</v>
@@ -12709,7 +12709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4.1465540094087698E-2</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>0.82170328299999995</v>
       </c>
       <c r="G232" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H232" s="1">
         <v>3.8693788999999999E-2</v>
@@ -12762,7 +12762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9.0563138499335297E-2</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>0.728876046</v>
       </c>
       <c r="G233" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H233" s="1">
         <v>3.5299773999999999E-2</v>
@@ -12815,7 +12815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1.8624085365091501E-2</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>0.17346307699999999</v>
       </c>
       <c r="G234" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H234" s="1">
         <v>3.2554905000000002E-2</v>
@@ -12868,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1.08826645424989E-2</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>0.162530902</v>
       </c>
       <c r="G235" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H235" s="1">
         <v>5.1193454999999999E-2</v>
@@ -12921,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1.2437883735220799E-2</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>0.35572530099999999</v>
       </c>
       <c r="G236" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H236" s="1">
         <v>4.0749339000000002E-2</v>
@@ -12974,7 +12974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2.1458197142287899E-2</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>0.19249691899999999</v>
       </c>
       <c r="G237" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H237" s="1">
         <v>3.1507230999999997E-2</v>
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3.7329854462519498E-2</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>0.67544779499999996</v>
       </c>
       <c r="G238" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H238" s="1">
         <v>3.0592680000000001E-2</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1.4998171467005701E-2</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>0.20866759900000001</v>
       </c>
       <c r="G239" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H239" s="1">
         <v>3.4314233999999999E-2</v>
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>5.45892510335916E-2</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>0.45491456800000002</v>
       </c>
       <c r="G240" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H240" s="1">
         <v>3.3240390000000002E-2</v>
@@ -13186,7 +13186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2.4155059716963499E-2</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>0.28112386700000003</v>
       </c>
       <c r="G241" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H241" s="1">
         <v>5.2947892000000003E-2</v>
@@ -13239,7 +13239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>5.85777458281364E-2</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>0.60196662199999995</v>
       </c>
       <c r="G242" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H242" s="1">
         <v>3.1853797000000003E-2</v>
@@ -13292,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3.2826751115215998E-2</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>0.55683911100000005</v>
       </c>
       <c r="G243" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H243" s="1">
         <v>3.2891234999999998E-2</v>
@@ -13345,7 +13345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1.7742737406545799E-2</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>0.37023171199999999</v>
       </c>
       <c r="G244" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H244" s="1">
         <v>2.9989379E-2</v>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2.1895172192552999E-2</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>0.215009905</v>
       </c>
       <c r="G245" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H245" s="1">
         <v>3.1156389E-2</v>
@@ -13451,7 +13451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1.7962434160819999E-2</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>0.15270461399999999</v>
       </c>
       <c r="G246" s="1">
-        <v>1.1450382E-2</v>
+        <v>2.6615969581748999E-2</v>
       </c>
       <c r="H246" s="1">
         <v>3.1168029E-2</v>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1.40892641096056E-2</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0.16100999999999999</v>
       </c>
       <c r="G247" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H247" s="1">
         <v>3.9941639000000001E-2</v>
@@ -13557,7 +13557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2.01572011180805E-2</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>8.4797443E-2</v>
       </c>
       <c r="G248" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>5.70342205323194E-2</v>
       </c>
       <c r="H248" s="1">
         <v>3.7902629E-2</v>
@@ -13610,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1.9291138425947499E-2</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>0.57323270800000004</v>
       </c>
       <c r="G249" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H249" s="1">
         <v>3.3087908999999999E-2</v>
@@ -13663,7 +13663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2.1449155829703598E-2</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>0.38480143100000003</v>
       </c>
       <c r="G250" s="1">
-        <v>3.0534351000000001E-2</v>
+        <v>5.70342205323194E-2</v>
       </c>
       <c r="H250" s="1">
         <v>3.9224806000000001E-2</v>
@@ -13716,7 +13716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>5.6874727336314303E-2</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>0.47303974799999998</v>
       </c>
       <c r="G251" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H251" s="1">
         <v>3.2145952999999998E-2</v>
@@ -13769,7 +13769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2.5519903779002099E-2</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>1.243109158</v>
       </c>
       <c r="G252" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H252" s="1">
         <v>6.6759225000000005E-2</v>
@@ -13822,7 +13822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2.3923407461922199E-2</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>0.28259441299999999</v>
       </c>
       <c r="G253" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H253" s="1">
         <v>2.7934645000000001E-2</v>
@@ -13875,7 +13875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3.5275718819721601E-2</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>0.78383491900000002</v>
       </c>
       <c r="G254" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H254" s="1">
         <v>4.7638758000000003E-2</v>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1.28679569069131E-2</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>6.5985050000000003E-2</v>
       </c>
       <c r="G255" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H255" s="1">
         <v>4.0812822999999998E-2</v>
@@ -13981,7 +13981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1.83965087755847E-2</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>0.29779130500000001</v>
       </c>
       <c r="G256" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H256" s="1">
         <v>4.2398930000000001E-2</v>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2.5424956792257199E-2</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>0.17578608800000001</v>
       </c>
       <c r="G257" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H257" s="1">
         <v>3.2835195999999997E-2</v>
@@ -14087,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>7.3329712112982096E-3</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>0.20384406999999999</v>
       </c>
       <c r="G258" s="1">
-        <v>3.8167938999999998E-2</v>
+        <v>5.3231939163498103E-2</v>
       </c>
       <c r="H258" s="1">
         <v>7.2828245E-2</v>
@@ -14140,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2.4980988593155899E-2</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>6.2208755760000001</v>
       </c>
       <c r="G259" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H259" s="1">
         <v>8.8351158999999999E-2</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8.2232549406186899E-3</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>2.3309630989999999</v>
       </c>
       <c r="G260" s="1">
-        <v>0.16030534399999999</v>
+        <v>0.22813688212927799</v>
       </c>
       <c r="H260" s="1">
         <v>4.1713576000000002E-2</v>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2.4962314666906699E-2</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>1.030420245</v>
       </c>
       <c r="G261" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H261" s="1">
         <v>7.8946856999999995E-2</v>
@@ -14299,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>6.8610054921842004E-3</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>1.3363003600000001</v>
       </c>
       <c r="G262" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H262" s="1">
         <v>4.7995282E-2</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1.04378416523598E-2</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>0.64217243400000001</v>
       </c>
       <c r="G263" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H263" s="1">
         <v>5.3337377999999998E-2</v>
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1.79681505048154E-2</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>0.65612226699999998</v>
       </c>
       <c r="G264" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H264" s="1">
         <v>7.9968207999999999E-2</v>
@@ -14458,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1.4717827922278499E-2</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>5.704227274</v>
       </c>
       <c r="G265" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H265" s="1">
         <v>4.1924597000000001E-2</v>
@@ -14511,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8.1920280683896295E-3</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>1.586763771</v>
       </c>
       <c r="G266" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>8.3650190114068407E-2</v>
       </c>
       <c r="H266" s="1">
         <v>3.9984120999999997E-2</v>
@@ -14564,7 +14564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>7.81329289066824E-3</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>1.14146602</v>
       </c>
       <c r="G267" s="1">
-        <v>1.5267176E-2</v>
+        <v>9.5057034220532299E-2</v>
       </c>
       <c r="H267" s="1">
         <v>3.8513948999999999E-2</v>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1.3329954435977899E-2</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>1.596354799</v>
       </c>
       <c r="G268" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H268" s="1">
         <v>3.8079667999999997E-2</v>
@@ -14670,7 +14670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1.6999765421641399E-2</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>1.1449253230000001</v>
       </c>
       <c r="G269" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H269" s="1">
         <v>4.1106051999999997E-2</v>
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1.7193210663240099E-2</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>1.3277997210000001</v>
       </c>
       <c r="G270" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H270" s="1">
         <v>3.9452347999999998E-2</v>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1.53499887926266E-2</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>1.6116117830000001</v>
       </c>
       <c r="G271" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H271" s="1">
         <v>3.5935249000000002E-2</v>
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>7.6395246042352399E-3</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>0.50283588899999998</v>
       </c>
       <c r="G272" s="1">
-        <v>3.8167938999999998E-2</v>
+        <v>0.155893536121673</v>
       </c>
       <c r="H272" s="1">
         <v>3.8609575E-2</v>
@@ -14882,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>7.2895808491011804E-3</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>0.45233843299999998</v>
       </c>
       <c r="G273" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H273" s="1">
         <v>9.4758008000000005E-2</v>
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>8.6080478879370995E-3</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>0.73259015699999996</v>
       </c>
       <c r="G274" s="1">
-        <v>3.4351145E-2</v>
+        <v>9.1254752851711002E-2</v>
       </c>
       <c r="H274" s="1">
         <v>3.8158025999999998E-2</v>
@@ -14988,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>8.5140834761002308E-3</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>0.56639454899999997</v>
       </c>
       <c r="G275" s="1">
-        <v>3.0534351000000001E-2</v>
+        <v>5.70342205323194E-2</v>
       </c>
       <c r="H275" s="1">
         <v>3.7517289000000002E-2</v>
@@ -15041,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1.04605416311011E-2</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>2.005229785</v>
       </c>
       <c r="G276" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>4.1825095057034203E-2</v>
       </c>
       <c r="H276" s="1">
         <v>3.7549267999999997E-2</v>
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>6.3107807974009398E-3</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>0.70776550000000005</v>
       </c>
       <c r="G277" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H277" s="1">
         <v>3.6465717000000002E-2</v>
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1.7967437946698198E-2</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>2.4931149060000002</v>
       </c>
       <c r="G278" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H278" s="1">
         <v>6.8012359999999994E-2</v>
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1.70321081537812E-2</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>4.5505253919999999</v>
       </c>
       <c r="G279" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H279" s="1">
         <v>4.5123661000000002E-2</v>
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1.14529176689687E-2</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>1.5745283130000001</v>
       </c>
       <c r="G280" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H280" s="1">
         <v>4.2646587E-2</v>
@@ -15306,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1.55024143962962E-2</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>0.77726679700000001</v>
       </c>
       <c r="G281" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H281" s="1">
         <v>6.147271E-2</v>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1.0562329133017001E-2</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>1.1295815339999999</v>
       </c>
       <c r="G282" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H282" s="1">
         <v>4.5021740999999997E-2</v>
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>9.9516500023470907E-3</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>0.17706253299999999</v>
       </c>
       <c r="G283" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H283" s="1">
         <v>6.7419142000000001E-2</v>
@@ -15465,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1.4448985926332999E-2</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>1.6881530899999999</v>
       </c>
       <c r="G284" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H284" s="1">
         <v>4.8450949E-2</v>
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>9.9725130002555704E-3</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>0.48266953200000001</v>
       </c>
       <c r="G285" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H285" s="1">
         <v>6.5851254999999997E-2</v>
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>8.6813807034220505E-3</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>1.411803296</v>
       </c>
       <c r="G286" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H286" s="1">
         <v>5.6034646E-2</v>
@@ -15624,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>7.4408351277587001E-3</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>0.69093358299999996</v>
       </c>
       <c r="G287" s="1">
-        <v>0.14122137400000001</v>
+        <v>0.16730038022813701</v>
       </c>
       <c r="H287" s="1">
         <v>4.3446208E-2</v>
@@ -15677,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>7.9746654236802893E-3</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>0.96555760599999996</v>
       </c>
       <c r="G288" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H288" s="1">
         <v>5.6676967000000002E-2</v>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>7.20687514549546E-3</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>4.9230822E-2</v>
       </c>
       <c r="G289" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H289" s="1">
         <v>5.8161445999999999E-2</v>
@@ -15783,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5.0021123785382298E-3</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>2.006700726</v>
       </c>
       <c r="G290" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H290" s="1">
         <v>8.3358109E-2</v>
@@ -15836,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1.71437262357414E-2</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v>1.77496889</v>
       </c>
       <c r="G291" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H291" s="1">
         <v>5.1758956000000002E-2</v>
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2.15548830432046E-2</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>1.6402439680000001</v>
       </c>
       <c r="G292" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H292" s="1">
         <v>9.2422273999999999E-2</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>5.0977955194169101E-3</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>0.40706484599999998</v>
       </c>
       <c r="G293" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H293" s="1">
         <v>6.7418990999999998E-2</v>
@@ -15995,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1.1579978682475799E-2</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>1.172452388</v>
       </c>
       <c r="G294" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>4.9429657794676798E-2</v>
       </c>
       <c r="H294" s="1">
         <v>3.8480424999999999E-2</v>
@@ -16048,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>9.2205323193916399E-3</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>0.35034698800000003</v>
       </c>
       <c r="G295" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H295" s="1">
         <v>5.1648485000000001E-2</v>
@@ -16101,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>9.4232159130188901E-3</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>0.64836556999999995</v>
       </c>
       <c r="G296" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H296" s="1">
         <v>5.1069438000000002E-2</v>
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8.5844716706567105E-3</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0.20760400400000001</v>
       </c>
       <c r="G297" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H297" s="1">
         <v>5.5207237999999999E-2</v>
@@ -16207,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2.4478624518961999E-2</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>3.3903900199999999</v>
       </c>
       <c r="G298" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H298" s="1">
         <v>4.3983296999999998E-2</v>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>6.8272074355724601E-3</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>0.25271159100000001</v>
       </c>
       <c r="G299" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H299" s="1">
         <v>8.6018473999999998E-2</v>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>7.2464531350389201E-3</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>2.2046907010000001</v>
       </c>
       <c r="G300" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H300" s="1">
         <v>7.4591223999999998E-2</v>
@@ -16366,7 +16366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5.5428812843261498E-3</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>0.53379560500000001</v>
       </c>
       <c r="G301" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H301" s="1">
         <v>8.0697744000000002E-2</v>
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1.2097189755179601E-2</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>0.55233543699999998</v>
       </c>
       <c r="G302" s="1">
-        <v>4.1984733000000003E-2</v>
+        <v>4.9429657794676798E-2</v>
       </c>
       <c r="H302" s="1">
         <v>4.0279154999999997E-2</v>
@@ -16472,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>9.3539309890414996E-3</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>1.213408099</v>
       </c>
       <c r="G303" s="1">
-        <v>0.15648855</v>
+        <v>0.288973384030418</v>
       </c>
       <c r="H303" s="1">
         <v>4.3670027E-2</v>
@@ -16525,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>8.5419307139839497E-3</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>4.2691008689999999</v>
       </c>
       <c r="G304" s="1">
-        <v>1.5267176E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H304" s="1">
         <v>7.3231415999999994E-2</v>
@@ -16578,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>7.59962511067228E-3</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>1.0317343459999999</v>
       </c>
       <c r="G305" s="1">
-        <v>0.18320610700000001</v>
+        <v>0.197718631178707</v>
       </c>
       <c r="H305" s="1">
         <v>4.4844148E-2</v>
@@ -16631,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1.5600400279230001E-2</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>0.53730896399999994</v>
       </c>
       <c r="G306" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H306" s="1">
         <v>4.8886776999999999E-2</v>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2.4074648870955201E-2</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>0.49749212999999998</v>
       </c>
       <c r="G307" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H307" s="1">
         <v>8.3954782000000006E-2</v>
@@ -16737,7 +16737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>9.3960004795262606E-3</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>0.448785763</v>
       </c>
       <c r="G308" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H308" s="1">
         <v>5.3013039999999997E-2</v>
@@ -16790,7 +16790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4.4924376848331201E-3</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>0.68271751599999997</v>
       </c>
       <c r="G309" s="1">
-        <v>1.5267176E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H309" s="1">
         <v>3.0207217000000001E-2</v>
@@ -16843,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1.9710604140261899E-2</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>2.0504505690000001</v>
       </c>
       <c r="G310" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H310" s="1">
         <v>4.5123661000000002E-2</v>
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>7.8952189874305304E-3</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>0.45073703100000001</v>
       </c>
       <c r="G311" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H311" s="1">
         <v>3.5095179999999997E-2</v>
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>7.5124156126328903E-3</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>0.750519151</v>
       </c>
       <c r="G312" s="1">
-        <v>1.5267176E-2</v>
+        <v>2.2813688212927799E-2</v>
       </c>
       <c r="H312" s="1">
         <v>4.3186416999999998E-2</v>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3.20056135737097E-2</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>0.28564900300000001</v>
       </c>
       <c r="G313" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H313" s="1">
         <v>4.3854242000000002E-2</v>
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>7.8702421667996795E-3</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>0.51449557099999998</v>
       </c>
       <c r="G314" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H314" s="1">
         <v>3.5210653000000001E-2</v>
@@ -17108,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1.54335445711872E-2</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>2.0377424830000002</v>
       </c>
       <c r="G315" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H315" s="1">
         <v>4.3655635999999998E-2</v>
@@ -17161,7 +17161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>7.1236174471476701E-3</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>0.79804911199999995</v>
       </c>
       <c r="G316" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H316" s="1">
         <v>3.1627065000000003E-2</v>
@@ -17214,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>5.9530667895686899E-3</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>0.74849104399999999</v>
       </c>
       <c r="G317" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H317" s="1">
         <v>3.3239761999999999E-2</v>
@@ -17267,7 +17267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>4.8719479621657296E-3</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>1.2209127909999999</v>
       </c>
       <c r="G318" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H318" s="1">
         <v>3.6491430999999998E-2</v>
@@ -17320,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.100029103882082</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>0.360667034</v>
       </c>
       <c r="G319" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H319" s="1">
         <v>4.3801092E-2</v>
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>9.2445685933932892E-3</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>4.6100829890000004</v>
       </c>
       <c r="G320" s="1">
-        <v>1.1450382E-2</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H320" s="1">
         <v>3.6662079E-2</v>
@@ -17426,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1.39621659254593E-2</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>0.77589649999999999</v>
       </c>
       <c r="G321" s="1">
-        <v>0.145038168</v>
+        <v>0.155893536121673</v>
       </c>
       <c r="H321" s="1">
         <v>3.9083610999999997E-2</v>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2.2173032931310802E-2</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>1.355953537</v>
       </c>
       <c r="G322" s="1">
-        <v>1.1450382E-2</v>
+        <v>3.4220532319391601E-2</v>
       </c>
       <c r="H322" s="1">
         <v>3.8565288000000003E-2</v>
@@ -17532,7 +17532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1.48420528534049E-2</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>0.69126689600000002</v>
       </c>
       <c r="G323" s="1">
-        <v>0.198473282</v>
+        <v>0.209125475285171</v>
       </c>
       <c r="H323" s="1">
         <v>4.0755102000000001E-2</v>
@@ -17585,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1.46178786026E-2</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>0.85566579600000003</v>
       </c>
       <c r="G324" s="1">
-        <v>0.16793893100000001</v>
+        <v>0.182509505703422</v>
       </c>
       <c r="H324" s="1">
         <v>3.9986692999999997E-2</v>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1.38690972906597E-2</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>0.984012208</v>
       </c>
       <c r="G325" s="1">
-        <v>0.122137405</v>
+        <v>0.14068441064638801</v>
       </c>
       <c r="H325" s="1">
         <v>4.0085345000000001E-2</v>
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1.8695473111394599E-2</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>1.045248189</v>
       </c>
       <c r="G326" s="1">
-        <v>3.4351145E-2</v>
+        <v>6.4638783269962002E-2</v>
       </c>
       <c r="H326" s="1">
         <v>3.8535459000000001E-2</v>
@@ -17744,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1.46490410786397E-2</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>1.037969395</v>
       </c>
       <c r="G327" s="1">
-        <v>0.18702290099999999</v>
+        <v>0.20532319391635001</v>
       </c>
       <c r="H327" s="1">
         <v>4.0357206999999999E-2</v>
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1.7159683186923701E-2</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>1.2651015960000001</v>
       </c>
       <c r="G328" s="1">
-        <v>9.5419847000000002E-2</v>
+        <v>0.11787072243346</v>
       </c>
       <c r="H328" s="1">
         <v>3.9125923999999999E-2</v>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1.5041832842202099E-2</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>1.3975491369999999</v>
       </c>
       <c r="G329" s="1">
-        <v>9.9236641E-2</v>
+        <v>0.106463878326996</v>
       </c>
       <c r="H329" s="1">
         <v>3.8619585999999997E-2</v>
@@ -17903,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>5.8921073881353002E-2</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>0.37605145499999998</v>
       </c>
       <c r="G330" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H330" s="1">
         <v>3.5945783000000002E-2</v>
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1.02556343494678E-2</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>1.0428740110000001</v>
       </c>
       <c r="G331" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H331" s="1">
         <v>5.9410755000000003E-2</v>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1.8290507967312301E-2</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>1.0351467809999999</v>
       </c>
       <c r="G332" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>7.2243346007604597E-2</v>
       </c>
       <c r="H332" s="1">
         <v>3.8434024999999997E-2</v>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1.77061848932152E-2</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>1.0327037240000001</v>
       </c>
       <c r="G333" s="1">
-        <v>2.6717556999999999E-2</v>
+        <v>0.10266159695817501</v>
       </c>
       <c r="H333" s="1">
         <v>3.9334577000000003E-2</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1.9433043657259001E-2</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>0.76053419700000002</v>
       </c>
       <c r="G334" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>7.9847908745247206E-2</v>
       </c>
       <c r="H334" s="1">
         <v>3.9013477999999997E-2</v>
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1.53957120147129E-2</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>0.68256992100000002</v>
       </c>
       <c r="G335" s="1">
-        <v>0.21374045799999999</v>
+        <v>0.23954372623574099</v>
       </c>
       <c r="H335" s="1">
         <v>4.1343484999999999E-2</v>
@@ -18221,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1.6431759360598399E-2</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>1.9671136650000001</v>
       </c>
       <c r="G336" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>9.1254752851711002E-2</v>
       </c>
       <c r="H336" s="1">
         <v>3.6648114000000002E-2</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>7.6013941698352301E-3</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>0.209681851</v>
       </c>
       <c r="G337" s="1">
-        <v>0.20610687</v>
+        <v>0.21673003802281399</v>
       </c>
       <c r="H337" s="1">
         <v>4.4452158999999998E-2</v>
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1.39371595706135E-2</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>0.740922042</v>
       </c>
       <c r="G338" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.5209125475285201E-2</v>
       </c>
       <c r="H338" s="1">
         <v>5.0562823999999999E-2</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1.8271558638308E-2</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>0.78034589700000001</v>
       </c>
       <c r="G339" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H339" s="1">
         <v>4.6601162000000002E-2</v>
@@ -18433,7 +18433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>8.5502832311631898E-3</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>1.225258156</v>
       </c>
       <c r="G340" s="1">
-        <v>9.9236641E-2</v>
+        <v>0.144486692015209</v>
       </c>
       <c r="H340" s="1">
         <v>4.5338789999999997E-2</v>
@@ -18486,7 +18486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1.05493116778022E-2</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>3.2716705039999998</v>
       </c>
       <c r="G341" s="1">
-        <v>2.2900763000000001E-2</v>
+        <v>3.4220532319391601E-2</v>
       </c>
       <c r="H341" s="1">
         <v>4.4577002999999997E-2</v>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>6.7661649621351794E-2</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>0.93935722499999996</v>
       </c>
       <c r="G342" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H342" s="1">
         <v>0.110452389</v>
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2.9527091254752901E-2</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>2.428113744</v>
       </c>
       <c r="G343" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H343" s="1">
         <v>0.10628844899999999</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4.2989058741367298E-2</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>0.43578019699999998</v>
       </c>
       <c r="G344" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>7.6045627376425898E-3</v>
       </c>
       <c r="H344" s="1">
         <v>9.3058313000000004E-2</v>
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>8.1045166892523106E-3</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>4.5024501089999998</v>
       </c>
       <c r="G345" s="1">
-        <v>1.1450382E-2</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H345" s="1">
         <v>8.7978128000000003E-2</v>
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1.06726982618142E-2</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>0.67703385599999999</v>
       </c>
       <c r="G346" s="1">
-        <v>3.4351145E-2</v>
+        <v>0.12167300380228099</v>
       </c>
       <c r="H346" s="1">
         <v>4.9643105999999999E-2</v>
@@ -18804,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1.3334955204072199E-2</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>0.97506455999999997</v>
       </c>
       <c r="G347" s="1">
-        <v>1.9083968999999999E-2</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H347" s="1">
         <v>3.5497279E-2</v>
@@ -18857,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2.00437089851805E-2</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>1.5068703569999999</v>
       </c>
       <c r="G348" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>1.9011406844106502E-2</v>
       </c>
       <c r="H348" s="1">
         <v>3.5917534000000001E-2</v>
@@ -18910,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1.20600384922311E-2</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>0.98280938500000004</v>
       </c>
       <c r="G349" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>6.0836501901140698E-2</v>
       </c>
       <c r="H349" s="1">
         <v>4.4779383999999998E-2</v>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1.24892369632306E-2</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>2.0772540629999998</v>
       </c>
       <c r="G350" s="1">
-        <v>7.6335880000000002E-3</v>
+        <v>3.8022813688212899E-2</v>
       </c>
       <c r="H350" s="1">
         <v>3.7699776999999997E-2</v>
@@ -19016,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1.07731305449937E-2</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>2.8974984660000001</v>
       </c>
       <c r="G351" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H351" s="1">
         <v>8.7340349999999997E-2</v>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>7.2424407025167498E-3</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>1.7301957210000001</v>
       </c>
       <c r="G352" s="1">
-        <v>3.8167938999999998E-2</v>
+        <v>3.8022813688212899E-2</v>
       </c>
       <c r="H352" s="1">
         <v>8.3245594000000006E-2</v>
@@ -19122,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1.38794051478146E-2</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>2.167554403</v>
       </c>
       <c r="G353" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>1.14068441064639E-2</v>
       </c>
       <c r="H353" s="1">
         <v>5.4537223000000003E-2</v>
@@ -19175,7 +19175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>7.4539773368971904E-3</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>1.0112458980000001</v>
       </c>
       <c r="G354" s="1">
-        <v>0.17938931299999999</v>
+        <v>0.186311787072243</v>
       </c>
       <c r="H354" s="1">
         <v>4.5889064E-2</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2.1033248151162899E-2</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>0.36405259899999998</v>
       </c>
       <c r="G355" s="1">
-        <v>3.8167940000000001E-3</v>
+        <v>3.8022813688212902E-3</v>
       </c>
       <c r="H355" s="1">
         <v>5.9843520999999997E-2</v>
@@ -19294,9 +19294,9 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19340,7 +19340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5.7258842602776201E-2</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.6399420061119099E-2</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.8023101195310798E-2</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.2326517245223699E-2</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.21706332784331E-2</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5.8162101342438099E-2</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.36031466068118E-2</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.8830044058180899E-2</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.71624997405798E-2</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.2661724940854101E-2</v>
       </c>
@@ -19780,7 +19780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4.7832129688758399E-2</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.4330904098014401E-2</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.30060773196488E-2</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5.93377406621668E-2</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7.3021425916161398E-2</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.5734226491062301E-2</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4.02678539190717E-2</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.15478788814366E-2</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.5766539923954399E-2</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7.63384508468263E-3</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.2459151711324302E-2</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.03593254820355E-2</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3.43958168537137E-2</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3.0274475414714602E-2</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.5075857753951399E-2</v>
       </c>
@@ -20440,7 +20440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.9433932663766799E-2</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7.0446998243018893E-2</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3.3030563793058298E-2</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5.8398348986393497E-2</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1.48296137277225E-2</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.5869605046787701E-2</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.4934368482710099E-2</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.7027769930340001E-2</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.9013633326174201E-2</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.2173876010015499E-2</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.4267878449679302E-2</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.7406177419347098E-2</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.58620766403713E-2</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4.3967545579824102E-2</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4.7253708141257102E-2</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6.2215931250373599E-2</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.4214248709016201E-2</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3.7808039334137199E-2</v>
       </c>
@@ -21232,7 +21232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8.1673473285546194E-2</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6.4845418105987901E-2</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3.3852162073485202E-2</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3.4793900165122002E-2</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4.1115710097488697E-2</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7.7784326846944196E-2</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6.5766285864438695E-2</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.39360129794597E-2</v>
       </c>
@@ -21584,7 +21584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5.1517732900895702E-2</v>
       </c>
@@ -21628,7 +21628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.97545516221883E-2</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3.68558516855532E-2</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3.37244013074511E-2</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.4941441142616399E-2</v>
       </c>
@@ -21804,7 +21804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4.6355845550426301E-2</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4.2917918378862802E-2</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3.7734854937390497E-2</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2.0874385507456499E-2</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2.7005991737093799E-2</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2.3238974025765202E-2</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1.40111228348598E-2</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2.2539113671460002E-2</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4.16784082088364E-2</v>
       </c>
@@ -22200,7 +22200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3.01431382331292E-2</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3.3455793292651297E-2</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7.4212769220496994E-2</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6.7409510432742001E-2</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2.595291742947E-2</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7.9960003952665296E-2</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5.6513861960433197E-2</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8.2925031497763493E-2</v>
       </c>
@@ -22552,7 +22552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4.3206323829235102E-2</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2.26946325586279E-2</v>
       </c>
@@ -22640,7 +22640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2.47226525215541E-2</v>
       </c>
@@ -22684,7 +22684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6.1566859964521201E-2</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1.2707910797662101E-2</v>
       </c>
@@ -22772,7 +22772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5.6949414646083503E-2</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1.3903945905524601E-2</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1.8733191134192698E-2</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2.4801912676457701E-2</v>
       </c>
@@ -22948,7 +22948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5.2858330904116499E-2</v>
       </c>
@@ -22992,7 +22992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5.54949960024562E-2</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2.2573660127069899E-2</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3.9067908812226701E-2</v>
       </c>
@@ -23124,7 +23124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2.5685134263949399E-2</v>
       </c>
@@ -23168,7 +23168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6.9249605833482303E-2</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4.6964513626760601E-2</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1.3577628592613401E-2</v>
       </c>
@@ -23300,7 +23300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2.0786334205085199E-2</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4.5618041704195297E-2</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1.20371811481121E-2</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2.1807374918575699E-2</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1.3374821768060799E-2</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1.52991788873312E-2</v>
       </c>
@@ -23564,7 +23564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6.6268180870256904E-2</v>
       </c>
@@ -23608,7 +23608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2.3699968750345E-2</v>
       </c>
@@ -23652,7 +23652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1.9754210286754701E-2</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5.9801766750058501E-2</v>
       </c>
@@ -23740,7 +23740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>9.2577285501735801E-3</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1.6329102342294399E-2</v>
       </c>
@@ -23828,7 +23828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4.1426456954419599E-2</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2.26233133570128E-2</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2.00804693342321E-2</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5.8635007393324903E-2</v>
       </c>
@@ -24004,7 +24004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3.3600021123785399E-2</v>
       </c>
@@ -24048,7 +24048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1.29186786635801E-2</v>
       </c>
@@ -24092,7 +24092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4.9091836954724799E-2</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6.4141611621036904E-2</v>
       </c>
@@ -24180,7 +24180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1.6130003941704101E-2</v>
       </c>
@@ -24224,7 +24224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.0808432057612101E-2</v>
       </c>
@@ -24268,7 +24268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4.1164161780420802E-2</v>
       </c>
@@ -24312,7 +24312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>6.3692059071531096E-2</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>6.3427493479558797E-2</v>
       </c>
@@ -24400,7 +24400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3.2829737634438597E-2</v>
       </c>
@@ -24444,7 +24444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.9170520478377001E-2</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2.8908322494064598E-2</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3.01360503802281E-2</v>
       </c>
@@ -24576,7 +24576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>5.8493831447251302E-2</v>
       </c>
@@ -24620,7 +24620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4.9103876632518501E-2</v>
       </c>
@@ -24664,7 +24664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.6114058009565699E-2</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.9472769204659599E-2</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3.9003979577412501E-2</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.8978077862056901E-2</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.6918727955904898E-2</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.4123167088468501E-2</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2.2023130544993701E-2</v>
       </c>
@@ -24972,7 +24972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2.1589574747312001E-2</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1.2010553270738E-2</v>
       </c>
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2.3095750153606501E-2</v>
       </c>
@@ -25104,7 +25104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3.4903476651059799E-2</v>
       </c>
@@ -25148,7 +25148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2.1919930383886298E-2</v>
       </c>
@@ -25192,7 +25192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3.1519391634980999E-2</v>
       </c>
@@ -25236,7 +25236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4.8701765878087201E-2</v>
       </c>
@@ -25280,7 +25280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1.4417356858329001E-2</v>
       </c>
@@ -25324,7 +25324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1.5752397940822099E-2</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3.4566233713931797E-2</v>
       </c>
@@ -25412,7 +25412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2.2699530236195101E-2</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>8.9580431241108704E-2</v>
       </c>
@@ -25500,7 +25500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3.3788807017259601E-2</v>
       </c>
@@ -25544,7 +25544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3.0950479280101199E-2</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>6.4186847955461507E-2</v>
       </c>
@@ -25632,7 +25632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2.99513281154071E-2</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.12415275252108E-2</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4.38913040199101E-2</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3.6848182756313699E-2</v>
       </c>
@@ -25808,7 +25808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2.1247090017777699E-2</v>
       </c>
@@ -25852,7 +25852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3.5831869982765399E-2</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3.4426991445809803E-2</v>
       </c>
@@ -25940,7 +25940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.64709526020092E-2</v>
       </c>
@@ -25984,7 +25984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2.40595626099833E-2</v>
       </c>
@@ -26028,7 +26028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.2596523963761E-2</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.5202172732210801E-2</v>
       </c>
@@ -26116,7 +26116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4.5427022859053999E-2</v>
       </c>
@@ -26160,7 +26160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>3.2698067820283998E-2</v>
       </c>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3.9736551503926201E-2</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2.51162927267779E-2</v>
       </c>
@@ -26292,7 +26292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.7919736144097299E-2</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3.9446296606898003E-2</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>3.1598423274981899E-2</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2.9519693221206299E-2</v>
       </c>
@@ -26468,7 +26468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6.7875216261128898E-2</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>5.6160068856027402E-2</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6.0928298540189302E-2</v>
       </c>
@@ -26600,7 +26600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.36929657794677E-2</v>
       </c>
@@ -26644,7 +26644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5.1479627948499897E-2</v>
       </c>
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.9077936733064699E-2</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>3.0573920862319599E-2</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2.7645298857190099E-2</v>
       </c>
@@ -26820,7 +26820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>5.1962581304417603E-2</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.7521884150633299E-2</v>
       </c>
@@ -26908,7 +26908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.53471527813716E-2</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>6.3552110790162403E-2</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1.7805073669201501E-2</v>
       </c>
@@ -27040,7 +27040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1.82402190339255E-2</v>
       </c>
@@ -27084,7 +27084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4.4315487607412399E-2</v>
       </c>
@@ -27128,7 +27128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>5.8993797168419897E-2</v>
       </c>
@@ -27172,7 +27172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3.5657208837938E-2</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4.8159411568744197E-2</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.6819201208709E-2</v>
       </c>
@@ -27304,7 +27304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4.4062992711979797E-2</v>
       </c>
@@ -27348,7 +27348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1.9234666364407599E-2</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2.4764411253796099E-2</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3.7256389505522597E-2</v>
       </c>
@@ -27480,7 +27480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>6.1339112204307697E-2</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>5.6405744273010103E-3</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2.06578749821059E-2</v>
       </c>
@@ -27612,7 +27612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1.3665339186410099E-2</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5.67613031582214E-2</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6.8770854349344303E-3</v>
       </c>
@@ -27744,7 +27744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4.6859760231996499E-2</v>
       </c>
@@ -27788,7 +27788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2.5400624800207501E-2</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1.8381152219053402E-2</v>
       </c>
@@ -27876,7 +27876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>5.68248844043268E-2</v>
       </c>
@@ -27920,7 +27920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1.16016978608218E-2</v>
       </c>
@@ -27964,7 +27964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1.7490041733828201E-2</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4.0323191620563498E-2</v>
       </c>
@@ -28052,7 +28052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1.22179974651458E-2</v>
       </c>
@@ -28096,7 +28096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2.5947354264154E-2</v>
       </c>
@@ -28140,7 +28140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1.51067625131295E-2</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1.3075623151668801E-2</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2.8013002807629899E-2</v>
       </c>
@@ -28272,7 +28272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2.4274608592767099E-2</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3.53210554590642E-2</v>
       </c>
@@ -28360,7 +28360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1.0189827952132699E-2</v>
       </c>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>5.6383025721865897E-2</v>
       </c>
@@ -28448,7 +28448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1.52426681792987E-2</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>4.9151768025711702E-2</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4.7803944942699003E-2</v>
       </c>
@@ -28580,7 +28580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1.2425261102036201E-2</v>
       </c>
@@ -28624,7 +28624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4.9341305522765597E-2</v>
       </c>
@@ -28668,7 +28668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2.1916243347697501E-2</v>
       </c>
@@ -28712,7 +28712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4.7941091043515002E-2</v>
       </c>
@@ -28756,7 +28756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3.4179797747028999E-2</v>
       </c>
@@ -28800,7 +28800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1.10200564121935E-2</v>
       </c>
@@ -28844,7 +28844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1.5830032066801201E-2</v>
       </c>
@@ -28888,7 +28888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5.7640999896480201E-2</v>
       </c>
@@ -28932,7 +28932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3.5808113315799098E-2</v>
       </c>
@@ -28976,7 +28976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3.1155985658042399E-2</v>
       </c>
@@ -29020,7 +29020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>6.3339653332291398E-2</v>
       </c>
@@ -29064,7 +29064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2.47482473859316E-2</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5.2428975681524499E-2</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>5.5814882002535697E-2</v>
       </c>
@@ -29196,7 +29196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>5.4865582928057897E-2</v>
       </c>
@@ -29240,7 +29240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2.3098671826370001E-2</v>
       </c>
@@ -29284,7 +29284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1.76914561898322E-2</v>
       </c>
@@ -29328,7 +29328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4.5822028092888802E-2</v>
       </c>
@@ -29372,7 +29372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1.7287434101443799E-2</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>8.1170762895115198E-2</v>
       </c>
@@ -29460,7 +29460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4.1465540094087698E-2</v>
       </c>
@@ -29504,7 +29504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9.0563138499335297E-2</v>
       </c>
@@ -29548,7 +29548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1.8624085365091501E-2</v>
       </c>
@@ -29592,7 +29592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1.08826645424989E-2</v>
       </c>
@@ -29636,7 +29636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1.2437883735220799E-2</v>
       </c>
@@ -29680,7 +29680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2.1458197142287899E-2</v>
       </c>
@@ -29724,7 +29724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3.7329854462519498E-2</v>
       </c>
@@ -29768,7 +29768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1.4998171467005701E-2</v>
       </c>
@@ -29812,7 +29812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>5.45892510335916E-2</v>
       </c>
@@ -29856,7 +29856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2.4155059716963499E-2</v>
       </c>
@@ -29900,7 +29900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>5.85777458281364E-2</v>
       </c>
@@ -29944,7 +29944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3.2826751115215998E-2</v>
       </c>
@@ -29988,7 +29988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1.7742737406545799E-2</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2.1895172192552999E-2</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1.7962434160819999E-2</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1.40892641096056E-2</v>
       </c>
@@ -30164,7 +30164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2.01572011180805E-2</v>
       </c>
@@ -30208,7 +30208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1.9291138425947499E-2</v>
       </c>
@@ -30252,7 +30252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2.1449155829703598E-2</v>
       </c>
@@ -30296,7 +30296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>5.6874727336314303E-2</v>
       </c>
@@ -30340,7 +30340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2.5519903779002099E-2</v>
       </c>
@@ -30384,7 +30384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2.3923407461922199E-2</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3.5275718819721601E-2</v>
       </c>
@@ -30472,7 +30472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1.28679569069131E-2</v>
       </c>
@@ -30516,7 +30516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1.83965087755847E-2</v>
       </c>
@@ -30560,7 +30560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2.5424956792257199E-2</v>
       </c>
@@ -30604,7 +30604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>7.3329712112982096E-3</v>
       </c>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2.4980988593155899E-2</v>
       </c>
@@ -30692,7 +30692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8.2232549406186899E-3</v>
       </c>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2.4962314666906699E-2</v>
       </c>
@@ -30780,7 +30780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>6.8610054921842004E-3</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1.04378416523598E-2</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1.79681505048154E-2</v>
       </c>
@@ -30912,7 +30912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1.4717827922278499E-2</v>
       </c>
@@ -30956,7 +30956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8.1920280683896295E-3</v>
       </c>
@@ -31000,7 +31000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>7.81329289066824E-3</v>
       </c>
@@ -31044,7 +31044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1.3329954435977899E-2</v>
       </c>
@@ -31088,7 +31088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1.6999765421641399E-2</v>
       </c>
@@ -31132,7 +31132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1.7193210663240099E-2</v>
       </c>
@@ -31176,7 +31176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1.53499887926266E-2</v>
       </c>
@@ -31220,7 +31220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>7.6395246042352399E-3</v>
       </c>
@@ -31264,7 +31264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>7.2895808491011804E-3</v>
       </c>
@@ -31308,7 +31308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>8.6080478879370995E-3</v>
       </c>
@@ -31352,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>8.5140834761002308E-3</v>
       </c>
@@ -31396,7 +31396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1.04605416311011E-2</v>
       </c>
@@ -31440,7 +31440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>6.3107807974009398E-3</v>
       </c>
@@ -31484,7 +31484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1.7967437946698198E-2</v>
       </c>
@@ -31528,7 +31528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1.70321081537812E-2</v>
       </c>
@@ -31572,7 +31572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>1.14529176689687E-2</v>
       </c>
@@ -31616,7 +31616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>1.55024143962962E-2</v>
       </c>
@@ -31660,7 +31660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1.0562329133017001E-2</v>
       </c>
@@ -31704,7 +31704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>9.9516500023470907E-3</v>
       </c>
@@ -31748,7 +31748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1.4448985926332999E-2</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>9.9725130002555704E-3</v>
       </c>
@@ -31836,7 +31836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>8.6813807034220505E-3</v>
       </c>
@@ -31880,7 +31880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>7.4408351277587001E-3</v>
       </c>
@@ -31924,7 +31924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>7.9746654236802893E-3</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>7.20687514549546E-3</v>
       </c>
@@ -32012,7 +32012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5.0021123785382298E-3</v>
       </c>
@@ -32056,7 +32056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1.71437262357414E-2</v>
       </c>
@@ -32100,7 +32100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2.15548830432046E-2</v>
       </c>
@@ -32144,7 +32144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>5.0977955194169101E-3</v>
       </c>
@@ -32188,7 +32188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1.1579978682475799E-2</v>
       </c>
@@ -32232,7 +32232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>9.2205323193916399E-3</v>
       </c>
@@ -32276,7 +32276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>9.4232159130188901E-3</v>
       </c>
@@ -32320,7 +32320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8.5844716706567105E-3</v>
       </c>
@@ -32364,7 +32364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2.4478624518961999E-2</v>
       </c>
@@ -32408,7 +32408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>6.8272074355724601E-3</v>
       </c>
@@ -32452,7 +32452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>7.2464531350389201E-3</v>
       </c>
@@ -32496,7 +32496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5.5428812843261498E-3</v>
       </c>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1.2097189755179601E-2</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>9.3539309890414996E-3</v>
       </c>
@@ -32628,7 +32628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>8.5419307139839497E-3</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>7.59962511067228E-3</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1.5600400279230001E-2</v>
       </c>
@@ -32760,7 +32760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2.4074648870955201E-2</v>
       </c>
@@ -32804,7 +32804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>9.3960004795262606E-3</v>
       </c>
@@ -32848,7 +32848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4.4924376848331201E-3</v>
       </c>
@@ -32892,7 +32892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1.9710604140261899E-2</v>
       </c>
@@ -32936,7 +32936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>7.8952189874305304E-3</v>
       </c>
@@ -32980,7 +32980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>7.5124156126328903E-3</v>
       </c>
@@ -33024,7 +33024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3.20056135737097E-2</v>
       </c>
@@ -33068,7 +33068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>7.8702421667996795E-3</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>1.54335445711872E-2</v>
       </c>
@@ -33156,7 +33156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>7.1236174471476701E-3</v>
       </c>
@@ -33200,7 +33200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>5.9530667895686899E-3</v>
       </c>
@@ -33244,7 +33244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>4.8719479621657296E-3</v>
       </c>
@@ -33288,7 +33288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>0.100029103882082</v>
       </c>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>9.2445685933932892E-3</v>
       </c>
@@ -33376,7 +33376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1.39621659254593E-2</v>
       </c>
@@ -33420,7 +33420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2.2173032931310802E-2</v>
       </c>
@@ -33464,7 +33464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1.48420528534049E-2</v>
       </c>
@@ -33508,7 +33508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1.46178786026E-2</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1.38690972906597E-2</v>
       </c>
@@ -33596,7 +33596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1.8695473111394599E-2</v>
       </c>
@@ -33640,7 +33640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1.46490410786397E-2</v>
       </c>
@@ -33684,7 +33684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1.7159683186923701E-2</v>
       </c>
@@ -33728,7 +33728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1.5041832842202099E-2</v>
       </c>
@@ -33772,7 +33772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>5.8921073881353002E-2</v>
       </c>
@@ -33816,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1.02556343494678E-2</v>
       </c>
@@ -33860,7 +33860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1.8290507967312301E-2</v>
       </c>
@@ -33904,7 +33904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1.77061848932152E-2</v>
       </c>
@@ -33948,7 +33948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1.9433043657259001E-2</v>
       </c>
@@ -33992,7 +33992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1.53957120147129E-2</v>
       </c>
@@ -34036,7 +34036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1.6431759360598399E-2</v>
       </c>
@@ -34080,7 +34080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>7.6013941698352301E-3</v>
       </c>
@@ -34124,7 +34124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1.39371595706135E-2</v>
       </c>
@@ -34168,7 +34168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1.8271558638308E-2</v>
       </c>
@@ -34212,7 +34212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>8.5502832311631898E-3</v>
       </c>
@@ -34256,7 +34256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1.05493116778022E-2</v>
       </c>
@@ -34300,7 +34300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>6.7661649621351794E-2</v>
       </c>
@@ -34344,7 +34344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2.9527091254752901E-2</v>
       </c>
@@ -34388,7 +34388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4.2989058741367298E-2</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>8.1045166892523106E-3</v>
       </c>
@@ -34476,7 +34476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1.06726982618142E-2</v>
       </c>
@@ -34520,7 +34520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1.3334955204072199E-2</v>
       </c>
@@ -34564,7 +34564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2.00437089851805E-2</v>
       </c>
@@ -34608,7 +34608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1.20600384922311E-2</v>
       </c>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1.24892369632306E-2</v>
       </c>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1.07731305449937E-2</v>
       </c>
@@ -34740,7 +34740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>7.2424407025167498E-3</v>
       </c>
@@ -34784,7 +34784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1.38794051478146E-2</v>
       </c>
@@ -34828,7 +34828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>7.4539773368971904E-3</v>
       </c>
@@ -34872,7 +34872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2.1033248151162899E-2</v>
       </c>
